--- a/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2035.xlsx
+++ b/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2035.xlsx
@@ -597,55 +597,55 @@
         <v>1876.1</v>
       </c>
       <c r="C3" t="n">
-        <v>7808.149999999998</v>
+        <v>7808.139999999998</v>
       </c>
       <c r="D3" t="n">
-        <v>842.0553921568626</v>
+        <v>842.05431372549</v>
       </c>
       <c r="E3" t="n">
-        <v>765.5049019607842</v>
+        <v>765.5039215686273</v>
       </c>
       <c r="F3" t="n">
-        <v>688.9544117647057</v>
+        <v>688.9535294117645</v>
       </c>
       <c r="G3" t="n">
-        <v>612.4039215686273</v>
+        <v>612.4031372549018</v>
       </c>
       <c r="H3" t="n">
-        <v>612.4039215686273</v>
+        <v>612.4031372549018</v>
       </c>
       <c r="I3" t="n">
-        <v>612.4039215686273</v>
+        <v>612.4031372549018</v>
       </c>
       <c r="J3" t="n">
-        <v>535.8534313725489</v>
+        <v>535.8527450980391</v>
       </c>
       <c r="K3" t="n">
-        <v>459.3029411764704</v>
+        <v>459.3023529411764</v>
       </c>
       <c r="L3" t="n">
-        <v>306.2019607843137</v>
+        <v>306.2015686274509</v>
       </c>
       <c r="M3" t="n">
-        <v>842.0553921568626</v>
+        <v>842.05431372549</v>
       </c>
       <c r="N3" t="n">
-        <v>306.2019607843137</v>
+        <v>306.2015686274509</v>
       </c>
       <c r="O3" t="n">
-        <v>306.2019607843137</v>
+        <v>306.2015686274509</v>
       </c>
       <c r="P3" t="n">
-        <v>306.2019607843137</v>
+        <v>306.2015686274509</v>
       </c>
       <c r="Q3" t="n">
-        <v>229.6514705882352</v>
+        <v>229.6511764705882</v>
       </c>
       <c r="R3" t="n">
-        <v>153.1009803921568</v>
+        <v>153.1007843137255</v>
       </c>
       <c r="S3" t="n">
-        <v>229.6514705882352</v>
+        <v>229.6511764705882</v>
       </c>
     </row>
     <row r="4">
@@ -771,58 +771,58 @@
         <v>2303</v>
       </c>
       <c r="B6" t="n">
-        <v>3388.52</v>
+        <v>3388.5</v>
       </c>
       <c r="C6" t="n">
-        <v>14293.48</v>
+        <v>14293.38</v>
       </c>
       <c r="D6" t="n">
-        <v>1572.282799999999</v>
+        <v>1572.2718</v>
       </c>
       <c r="E6" t="n">
-        <v>1429.348</v>
+        <v>1429.338</v>
       </c>
       <c r="F6" t="n">
-        <v>1286.4132</v>
+        <v>1286.4042</v>
       </c>
       <c r="G6" t="n">
-        <v>1143.4784</v>
+        <v>1143.4704</v>
       </c>
       <c r="H6" t="n">
-        <v>1143.4784</v>
+        <v>1143.4704</v>
       </c>
       <c r="I6" t="n">
-        <v>1143.4784</v>
+        <v>1143.4704</v>
       </c>
       <c r="J6" t="n">
-        <v>1000.5436</v>
+        <v>1000.5366</v>
       </c>
       <c r="K6" t="n">
-        <v>857.6087999999997</v>
+        <v>857.6027999999998</v>
       </c>
       <c r="L6" t="n">
-        <v>571.7391999999999</v>
+        <v>571.7351999999998</v>
       </c>
       <c r="M6" t="n">
-        <v>1572.282799999999</v>
+        <v>1572.2718</v>
       </c>
       <c r="N6" t="n">
-        <v>571.7391999999999</v>
+        <v>571.7351999999998</v>
       </c>
       <c r="O6" t="n">
-        <v>571.7391999999999</v>
+        <v>571.7351999999998</v>
       </c>
       <c r="P6" t="n">
-        <v>428.8043999999999</v>
+        <v>428.8013999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>428.8043999999999</v>
+        <v>428.8013999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>285.8695999999999</v>
+        <v>285.8675999999999</v>
       </c>
       <c r="S6" t="n">
-        <v>285.8695999999999</v>
+        <v>285.8675999999999</v>
       </c>
     </row>
     <row r="7">
@@ -830,58 +830,58 @@
         <v>2101</v>
       </c>
       <c r="B7" t="n">
-        <v>1688.99</v>
+        <v>1688.91</v>
       </c>
       <c r="C7" t="n">
-        <v>8560.370000000001</v>
+        <v>8559.99</v>
       </c>
       <c r="D7" t="n">
-        <v>1017.073663366337</v>
+        <v>1017.028514851485</v>
       </c>
       <c r="E7" t="n">
-        <v>932.3175247524754</v>
+        <v>932.2761386138613</v>
       </c>
       <c r="F7" t="n">
-        <v>847.561386138614</v>
+        <v>847.5237623762376</v>
       </c>
       <c r="G7" t="n">
-        <v>678.0491089108912</v>
+        <v>678.0190099009901</v>
       </c>
       <c r="H7" t="n">
-        <v>678.0491089108912</v>
+        <v>678.0190099009901</v>
       </c>
       <c r="I7" t="n">
-        <v>678.0491089108912</v>
+        <v>678.0190099009901</v>
       </c>
       <c r="J7" t="n">
-        <v>593.2929702970298</v>
+        <v>593.2666336633664</v>
       </c>
       <c r="K7" t="n">
-        <v>508.5368316831683</v>
+        <v>508.5142574257425</v>
       </c>
       <c r="L7" t="n">
-        <v>339.0245544554456</v>
+        <v>339.0095049504951</v>
       </c>
       <c r="M7" t="n">
-        <v>1017.073663366337</v>
+        <v>1017.028514851485</v>
       </c>
       <c r="N7" t="n">
-        <v>254.2684158415842</v>
+        <v>254.2571287128713</v>
       </c>
       <c r="O7" t="n">
-        <v>254.2684158415842</v>
+        <v>254.2571287128713</v>
       </c>
       <c r="P7" t="n">
-        <v>254.2684158415842</v>
+        <v>254.2571287128713</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.5122772277228</v>
+        <v>169.5047524752475</v>
       </c>
       <c r="R7" t="n">
-        <v>169.5122772277228</v>
+        <v>169.5047524752475</v>
       </c>
       <c r="S7" t="n">
-        <v>169.5122772277228</v>
+        <v>169.5047524752475</v>
       </c>
     </row>
     <row r="8">
@@ -889,58 +889,58 @@
         <v>3605</v>
       </c>
       <c r="B8" t="n">
-        <v>514.6900000000001</v>
+        <v>514.67</v>
       </c>
       <c r="C8" t="n">
-        <v>2037.369999999999</v>
+        <v>2037.309999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>226.3744444444444</v>
+        <v>226.3677777777777</v>
       </c>
       <c r="E8" t="n">
-        <v>185.2154545454545</v>
+        <v>185.2099999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>164.6359595959595</v>
+        <v>164.6311111111111</v>
       </c>
       <c r="G8" t="n">
-        <v>144.0564646464646</v>
+        <v>144.0522222222222</v>
       </c>
       <c r="H8" t="n">
-        <v>164.6359595959595</v>
+        <v>164.6311111111111</v>
       </c>
       <c r="I8" t="n">
-        <v>164.6359595959595</v>
+        <v>164.6311111111111</v>
       </c>
       <c r="J8" t="n">
-        <v>144.0564646464646</v>
+        <v>144.0522222222222</v>
       </c>
       <c r="K8" t="n">
-        <v>123.4769696969696</v>
+        <v>123.4733333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>82.31797979797977</v>
+        <v>82.31555555555553</v>
       </c>
       <c r="M8" t="n">
-        <v>205.7949494949494</v>
+        <v>205.7888888888888</v>
       </c>
       <c r="N8" t="n">
-        <v>82.31797979797977</v>
+        <v>82.31555555555553</v>
       </c>
       <c r="O8" t="n">
-        <v>82.31797979797977</v>
+        <v>82.31555555555553</v>
       </c>
       <c r="P8" t="n">
-        <v>82.31797979797977</v>
+        <v>82.31555555555553</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.73848484848482</v>
+        <v>61.73666666666664</v>
       </c>
       <c r="R8" t="n">
-        <v>61.73848484848482</v>
+        <v>61.73666666666664</v>
       </c>
       <c r="S8" t="n">
-        <v>61.73848484848482</v>
+        <v>61.73666666666664</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         <v>2404</v>
       </c>
       <c r="B10" t="n">
-        <v>1378.02</v>
+        <v>1377.92</v>
       </c>
       <c r="C10" t="n">
-        <v>6130.42</v>
+        <v>6129.99</v>
       </c>
       <c r="D10" t="n">
-        <v>721.2258823529412</v>
+        <v>721.175294117647</v>
       </c>
       <c r="E10" t="n">
-        <v>661.1237254901961</v>
+        <v>661.0773529411765</v>
       </c>
       <c r="F10" t="n">
-        <v>601.021568627451</v>
+        <v>600.9794117647059</v>
       </c>
       <c r="G10" t="n">
-        <v>540.9194117647058</v>
+        <v>540.8814705882352</v>
       </c>
       <c r="H10" t="n">
-        <v>480.8172549019608</v>
+        <v>480.7835294117647</v>
       </c>
       <c r="I10" t="n">
-        <v>480.8172549019608</v>
+        <v>480.7835294117647</v>
       </c>
       <c r="J10" t="n">
-        <v>420.7150980392157</v>
+        <v>420.6855882352941</v>
       </c>
       <c r="K10" t="n">
-        <v>300.5107843137255</v>
+        <v>300.489705882353</v>
       </c>
       <c r="L10" t="n">
-        <v>240.4086274509804</v>
+        <v>240.3917647058823</v>
       </c>
       <c r="M10" t="n">
-        <v>721.2258823529412</v>
+        <v>721.175294117647</v>
       </c>
       <c r="N10" t="n">
-        <v>240.4086274509804</v>
+        <v>240.3917647058823</v>
       </c>
       <c r="O10" t="n">
-        <v>180.3064705882353</v>
+        <v>180.2938235294118</v>
       </c>
       <c r="P10" t="n">
-        <v>180.3064705882353</v>
+        <v>180.2938235294118</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.2043137254902</v>
+        <v>120.1958823529412</v>
       </c>
       <c r="R10" t="n">
-        <v>120.2043137254902</v>
+        <v>120.1958823529412</v>
       </c>
       <c r="S10" t="n">
-        <v>120.2043137254902</v>
+        <v>120.1958823529412</v>
       </c>
     </row>
     <row r="11">
@@ -1066,58 +1066,58 @@
         <v>6402</v>
       </c>
       <c r="B11" t="n">
-        <v>4776.09</v>
+        <v>4776.08</v>
       </c>
       <c r="C11" t="n">
-        <v>24299.79</v>
+        <v>24299.74</v>
       </c>
       <c r="D11" t="n">
-        <v>2858.798823529412</v>
+        <v>2858.792941176471</v>
       </c>
       <c r="E11" t="n">
-        <v>2620.565588235294</v>
+        <v>2620.560196078432</v>
       </c>
       <c r="F11" t="n">
-        <v>2382.332352941176</v>
+        <v>2382.327450980392</v>
       </c>
       <c r="G11" t="n">
-        <v>2144.099117647059</v>
+        <v>2144.094705882353</v>
       </c>
       <c r="H11" t="n">
-        <v>1905.865882352941</v>
+        <v>1905.861960784314</v>
       </c>
       <c r="I11" t="n">
-        <v>1905.865882352941</v>
+        <v>1905.861960784314</v>
       </c>
       <c r="J11" t="n">
-        <v>1667.632647058824</v>
+        <v>1667.629215686275</v>
       </c>
       <c r="K11" t="n">
-        <v>1429.399411764706</v>
+        <v>1429.396470588235</v>
       </c>
       <c r="L11" t="n">
-        <v>952.9329411764706</v>
+        <v>952.9309803921569</v>
       </c>
       <c r="M11" t="n">
-        <v>2858.798823529412</v>
+        <v>2858.792941176471</v>
       </c>
       <c r="N11" t="n">
-        <v>952.9329411764706</v>
+        <v>952.9309803921569</v>
       </c>
       <c r="O11" t="n">
-        <v>714.699705882353</v>
+        <v>714.6982352941177</v>
       </c>
       <c r="P11" t="n">
-        <v>714.699705882353</v>
+        <v>714.6982352941177</v>
       </c>
       <c r="Q11" t="n">
-        <v>476.4664705882353</v>
+        <v>476.4654901960785</v>
       </c>
       <c r="R11" t="n">
-        <v>238.2332352941177</v>
+        <v>238.2327450980392</v>
       </c>
       <c r="S11" t="n">
-        <v>476.4664705882353</v>
+        <v>476.4654901960785</v>
       </c>
     </row>
     <row r="12">
@@ -1125,58 +1125,58 @@
         <v>209</v>
       </c>
       <c r="B12" t="n">
-        <v>105.3</v>
+        <v>105.28</v>
       </c>
       <c r="C12" t="n">
-        <v>499.5899999999999</v>
+        <v>499.54</v>
       </c>
       <c r="D12" t="n">
-        <v>44.96309999999999</v>
+        <v>44.95859999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>39.96719999999999</v>
+        <v>39.96319999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>34.97129999999999</v>
+        <v>34.9678</v>
       </c>
       <c r="G12" t="n">
-        <v>29.97539999999999</v>
+        <v>29.97239999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>29.97539999999999</v>
+        <v>29.97239999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>34.97129999999999</v>
+        <v>34.9678</v>
       </c>
       <c r="J12" t="n">
-        <v>29.97539999999999</v>
+        <v>29.97239999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>29.97539999999999</v>
+        <v>29.97239999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>34.97129999999999</v>
+        <v>34.9678</v>
       </c>
       <c r="M12" t="n">
-        <v>44.96309999999999</v>
+        <v>44.95859999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>24.97949999999999</v>
+        <v>24.977</v>
       </c>
       <c r="O12" t="n">
-        <v>24.97949999999999</v>
+        <v>24.977</v>
       </c>
       <c r="P12" t="n">
-        <v>19.9836</v>
+        <v>19.9816</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.9836</v>
+        <v>19.9816</v>
       </c>
       <c r="R12" t="n">
-        <v>19.9836</v>
+        <v>19.9816</v>
       </c>
       <c r="S12" t="n">
-        <v>34.97129999999999</v>
+        <v>34.9678</v>
       </c>
     </row>
     <row r="13">
@@ -1184,58 +1184,58 @@
         <v>206</v>
       </c>
       <c r="B13" t="n">
-        <v>150.9</v>
+        <v>150.89</v>
       </c>
       <c r="C13" t="n">
-        <v>724.6299999999999</v>
+        <v>724.6099999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>65.21669999999999</v>
+        <v>65.21489999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>57.97039999999999</v>
+        <v>57.96879999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>50.72409999999999</v>
+        <v>50.7227</v>
       </c>
       <c r="G13" t="n">
-        <v>43.47779999999999</v>
+        <v>43.47659999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>43.47779999999999</v>
+        <v>43.47659999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>50.72409999999999</v>
+        <v>50.7227</v>
       </c>
       <c r="J13" t="n">
-        <v>43.47779999999999</v>
+        <v>43.47659999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>43.47779999999999</v>
+        <v>43.47659999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>50.72409999999999</v>
+        <v>50.7227</v>
       </c>
       <c r="M13" t="n">
-        <v>65.21669999999999</v>
+        <v>65.21489999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>36.23149999999999</v>
+        <v>36.23049999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>36.23149999999999</v>
+        <v>36.23049999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>28.9852</v>
+        <v>28.9844</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.9852</v>
+        <v>28.9844</v>
       </c>
       <c r="R13" t="n">
-        <v>28.9852</v>
+        <v>28.9844</v>
       </c>
       <c r="S13" t="n">
-        <v>50.72409999999999</v>
+        <v>50.7227</v>
       </c>
     </row>
     <row r="14">
@@ -1243,58 +1243,58 @@
         <v>205</v>
       </c>
       <c r="B14" t="n">
-        <v>327.57</v>
+        <v>327.56</v>
       </c>
       <c r="C14" t="n">
-        <v>1573.79</v>
+        <v>1573.75</v>
       </c>
       <c r="D14" t="n">
-        <v>141.6411</v>
+        <v>141.6375</v>
       </c>
       <c r="E14" t="n">
-        <v>125.9032</v>
+        <v>125.9</v>
       </c>
       <c r="F14" t="n">
-        <v>110.1653</v>
+        <v>110.1625</v>
       </c>
       <c r="G14" t="n">
-        <v>94.42739999999998</v>
+        <v>94.42499999999997</v>
       </c>
       <c r="H14" t="n">
-        <v>94.42739999999998</v>
+        <v>94.42499999999997</v>
       </c>
       <c r="I14" t="n">
-        <v>110.1653</v>
+        <v>110.1625</v>
       </c>
       <c r="J14" t="n">
-        <v>94.42739999999998</v>
+        <v>94.42499999999997</v>
       </c>
       <c r="K14" t="n">
-        <v>94.42739999999998</v>
+        <v>94.42499999999997</v>
       </c>
       <c r="L14" t="n">
-        <v>110.1653</v>
+        <v>110.1625</v>
       </c>
       <c r="M14" t="n">
-        <v>141.6411</v>
+        <v>141.6375</v>
       </c>
       <c r="N14" t="n">
-        <v>78.68949999999998</v>
+        <v>78.68749999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>78.68949999999998</v>
+        <v>78.68749999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>62.95159999999999</v>
+        <v>62.94999999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.95159999999999</v>
+        <v>62.94999999999999</v>
       </c>
       <c r="R14" t="n">
-        <v>62.95159999999999</v>
+        <v>62.94999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>110.1653</v>
+        <v>110.1625</v>
       </c>
     </row>
     <row r="15">
@@ -1302,58 +1302,58 @@
         <v>202</v>
       </c>
       <c r="B15" t="n">
-        <v>125.92</v>
+        <v>125.91</v>
       </c>
       <c r="C15" t="n">
-        <v>599.6999999999999</v>
+        <v>599.6499999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>53.97299999999999</v>
+        <v>53.96849999999998</v>
       </c>
       <c r="E15" t="n">
-        <v>47.976</v>
+        <v>47.97199999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>41.979</v>
+        <v>41.9755</v>
       </c>
       <c r="G15" t="n">
-        <v>35.98199999999999</v>
+        <v>35.97899999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>35.98199999999999</v>
+        <v>35.97899999999999</v>
       </c>
       <c r="I15" t="n">
-        <v>41.979</v>
+        <v>41.9755</v>
       </c>
       <c r="J15" t="n">
-        <v>35.98199999999999</v>
+        <v>35.97899999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>35.98199999999999</v>
+        <v>35.97899999999999</v>
       </c>
       <c r="L15" t="n">
-        <v>41.979</v>
+        <v>41.9755</v>
       </c>
       <c r="M15" t="n">
-        <v>53.97299999999999</v>
+        <v>53.96849999999998</v>
       </c>
       <c r="N15" t="n">
-        <v>29.985</v>
+        <v>29.98249999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>29.985</v>
+        <v>29.98249999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>23.988</v>
+        <v>23.986</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.988</v>
+        <v>23.986</v>
       </c>
       <c r="R15" t="n">
-        <v>23.988</v>
+        <v>23.986</v>
       </c>
       <c r="S15" t="n">
-        <v>41.979</v>
+        <v>41.9755</v>
       </c>
     </row>
     <row r="16">
@@ -1479,58 +1479,58 @@
         <v>1303</v>
       </c>
       <c r="B18" t="n">
-        <v>590.37</v>
+        <v>590.34</v>
       </c>
       <c r="C18" t="n">
-        <v>2656.65</v>
+        <v>2656.52</v>
       </c>
       <c r="D18" t="n">
-        <v>263.0346534653465</v>
+        <v>263.0217821782177</v>
       </c>
       <c r="E18" t="n">
-        <v>236.7311881188118</v>
+        <v>236.719603960396</v>
       </c>
       <c r="F18" t="n">
-        <v>236.7311881188118</v>
+        <v>236.719603960396</v>
       </c>
       <c r="G18" t="n">
-        <v>210.4277227722772</v>
+        <v>210.4174257425742</v>
       </c>
       <c r="H18" t="n">
-        <v>184.1242574257426</v>
+        <v>184.1152475247524</v>
       </c>
       <c r="I18" t="n">
-        <v>184.1242574257426</v>
+        <v>184.1152475247524</v>
       </c>
       <c r="J18" t="n">
-        <v>184.1242574257426</v>
+        <v>184.1152475247524</v>
       </c>
       <c r="K18" t="n">
-        <v>184.1242574257426</v>
+        <v>184.1152475247524</v>
       </c>
       <c r="L18" t="n">
-        <v>157.8207920792079</v>
+        <v>157.8130693069307</v>
       </c>
       <c r="M18" t="n">
-        <v>263.0346534653465</v>
+        <v>263.0217821782177</v>
       </c>
       <c r="N18" t="n">
-        <v>105.2138613861386</v>
+        <v>105.2087128712871</v>
       </c>
       <c r="O18" t="n">
-        <v>105.2138613861386</v>
+        <v>105.2087128712871</v>
       </c>
       <c r="P18" t="n">
-        <v>78.91039603960394</v>
+        <v>78.90653465346533</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.91039603960394</v>
+        <v>78.90653465346533</v>
       </c>
       <c r="R18" t="n">
-        <v>78.91039603960394</v>
+        <v>78.90653465346533</v>
       </c>
       <c r="S18" t="n">
-        <v>105.2138613861386</v>
+        <v>105.2087128712871</v>
       </c>
     </row>
     <row r="19">
@@ -1538,58 +1538,58 @@
         <v>6503</v>
       </c>
       <c r="B19" t="n">
-        <v>1128.92</v>
+        <v>1128.91</v>
       </c>
       <c r="C19" t="n">
-        <v>5080.129999999999</v>
+        <v>5080.109999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>558.8142999999999</v>
+        <v>558.8120999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>508.0129999999999</v>
+        <v>508.0109999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>457.2117</v>
+        <v>457.2098999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>406.4103999999999</v>
+        <v>406.4087999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>355.6091</v>
+        <v>355.6077</v>
       </c>
       <c r="I19" t="n">
-        <v>406.4103999999999</v>
+        <v>406.4087999999999</v>
       </c>
       <c r="J19" t="n">
-        <v>355.6091</v>
+        <v>355.6077</v>
       </c>
       <c r="K19" t="n">
-        <v>304.8077999999999</v>
+        <v>304.8065999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>254.0065</v>
+        <v>254.0054999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>508.0129999999999</v>
+        <v>508.0109999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>203.2052</v>
+        <v>203.2044</v>
       </c>
       <c r="O19" t="n">
-        <v>203.2052</v>
+        <v>203.2044</v>
       </c>
       <c r="P19" t="n">
-        <v>152.4039</v>
+        <v>152.4032999999999</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.4039</v>
+        <v>152.4032999999999</v>
       </c>
       <c r="R19" t="n">
-        <v>101.6026</v>
+        <v>101.6022</v>
       </c>
       <c r="S19" t="n">
-        <v>152.4039</v>
+        <v>152.4032999999999</v>
       </c>
     </row>
     <row r="20">
@@ -1597,58 +1597,58 @@
         <v>6505</v>
       </c>
       <c r="B20" t="n">
-        <v>1774.88</v>
+        <v>1774.83</v>
       </c>
       <c r="C20" t="n">
-        <v>7986.939999999998</v>
+        <v>7986.749999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>878.5633999999998</v>
+        <v>878.5424999999998</v>
       </c>
       <c r="E20" t="n">
-        <v>798.6939999999997</v>
+        <v>798.6749999999998</v>
       </c>
       <c r="F20" t="n">
-        <v>718.8245999999998</v>
+        <v>718.8074999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>638.9551999999999</v>
+        <v>638.9399999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>559.0857999999999</v>
+        <v>559.0725</v>
       </c>
       <c r="I20" t="n">
-        <v>638.9551999999999</v>
+        <v>638.9399999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>559.0857999999999</v>
+        <v>559.0725</v>
       </c>
       <c r="K20" t="n">
-        <v>479.2163999999999</v>
+        <v>479.2049999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>399.3469999999999</v>
+        <v>399.3374999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>798.6939999999997</v>
+        <v>798.6749999999998</v>
       </c>
       <c r="N20" t="n">
-        <v>319.4775999999999</v>
+        <v>319.47</v>
       </c>
       <c r="O20" t="n">
-        <v>319.4775999999999</v>
+        <v>319.47</v>
       </c>
       <c r="P20" t="n">
-        <v>239.6081999999999</v>
+        <v>239.6024999999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>239.6081999999999</v>
+        <v>239.6024999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>159.7388</v>
+        <v>159.735</v>
       </c>
       <c r="S20" t="n">
-        <v>239.6081999999999</v>
+        <v>239.6024999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1973,58 +1973,58 @@
         <v>6605</v>
       </c>
       <c r="B28" t="n">
-        <v>304</v>
+        <v>303.99</v>
       </c>
       <c r="C28" t="n">
-        <v>1291.58</v>
+        <v>1291.5</v>
       </c>
       <c r="D28" t="n">
-        <v>143.5088888888888</v>
+        <v>143.4999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>130.4626262626262</v>
+        <v>130.4545454545454</v>
       </c>
       <c r="F28" t="n">
-        <v>117.4163636363636</v>
+        <v>117.4090909090909</v>
       </c>
       <c r="G28" t="n">
-        <v>104.370101010101</v>
+        <v>104.3636363636363</v>
       </c>
       <c r="H28" t="n">
-        <v>91.32383838383836</v>
+        <v>91.3181818181818</v>
       </c>
       <c r="I28" t="n">
-        <v>91.32383838383836</v>
+        <v>91.3181818181818</v>
       </c>
       <c r="J28" t="n">
-        <v>91.32383838383836</v>
+        <v>91.3181818181818</v>
       </c>
       <c r="K28" t="n">
-        <v>78.27757575757573</v>
+        <v>78.27272727272725</v>
       </c>
       <c r="L28" t="n">
-        <v>65.23131313131312</v>
+        <v>65.22727272727271</v>
       </c>
       <c r="M28" t="n">
-        <v>130.4626262626262</v>
+        <v>130.4545454545454</v>
       </c>
       <c r="N28" t="n">
-        <v>52.18505050505049</v>
+        <v>52.18181818181817</v>
       </c>
       <c r="O28" t="n">
-        <v>52.18505050505049</v>
+        <v>52.18181818181817</v>
       </c>
       <c r="P28" t="n">
-        <v>39.13878787878787</v>
+        <v>39.13636363636363</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.13878787878787</v>
+        <v>39.13636363636363</v>
       </c>
       <c r="R28" t="n">
-        <v>26.09252525252525</v>
+        <v>26.09090909090908</v>
       </c>
       <c r="S28" t="n">
-        <v>39.13878787878787</v>
+        <v>39.13636363636363</v>
       </c>
     </row>
     <row r="29">
@@ -2032,58 +2032,58 @@
         <v>6606</v>
       </c>
       <c r="B29" t="n">
-        <v>1599.06</v>
+        <v>1599.05</v>
       </c>
       <c r="C29" t="n">
-        <v>6751.649999999998</v>
+        <v>6751.589999999998</v>
       </c>
       <c r="D29" t="n">
-        <v>750.1833333333331</v>
+        <v>750.1766666666665</v>
       </c>
       <c r="E29" t="n">
-        <v>681.9848484848483</v>
+        <v>681.9787878787877</v>
       </c>
       <c r="F29" t="n">
-        <v>613.7863636363634</v>
+        <v>613.7809090909088</v>
       </c>
       <c r="G29" t="n">
-        <v>545.5878787878786</v>
+        <v>545.5830303030302</v>
       </c>
       <c r="H29" t="n">
-        <v>477.3893939393938</v>
+        <v>477.3851515151514</v>
       </c>
       <c r="I29" t="n">
-        <v>477.3893939393938</v>
+        <v>477.3851515151514</v>
       </c>
       <c r="J29" t="n">
-        <v>477.3893939393938</v>
+        <v>477.3851515151514</v>
       </c>
       <c r="K29" t="n">
-        <v>409.1909090909089</v>
+        <v>409.1872727272726</v>
       </c>
       <c r="L29" t="n">
-        <v>340.9924242424241</v>
+        <v>340.9893939393938</v>
       </c>
       <c r="M29" t="n">
-        <v>681.9848484848483</v>
+        <v>681.9787878787877</v>
       </c>
       <c r="N29" t="n">
-        <v>272.7939393939393</v>
+        <v>272.7915151515151</v>
       </c>
       <c r="O29" t="n">
-        <v>272.7939393939393</v>
+        <v>272.7915151515151</v>
       </c>
       <c r="P29" t="n">
-        <v>204.5954545454545</v>
+        <v>204.5936363636363</v>
       </c>
       <c r="Q29" t="n">
-        <v>204.5954545454545</v>
+        <v>204.5936363636363</v>
       </c>
       <c r="R29" t="n">
-        <v>136.3969696969696</v>
+        <v>136.3957575757576</v>
       </c>
       <c r="S29" t="n">
-        <v>204.5954545454545</v>
+        <v>204.5936363636363</v>
       </c>
     </row>
     <row r="30">
@@ -2091,58 +2091,58 @@
         <v>6507</v>
       </c>
       <c r="B30" t="n">
-        <v>1196.26</v>
+        <v>1196.23</v>
       </c>
       <c r="C30" t="n">
-        <v>5063.879999999999</v>
+        <v>5063.729999999998</v>
       </c>
       <c r="D30" t="n">
-        <v>562.6533333333332</v>
+        <v>562.6366666666664</v>
       </c>
       <c r="E30" t="n">
-        <v>511.5030303030302</v>
+        <v>511.4878787878786</v>
       </c>
       <c r="F30" t="n">
-        <v>460.3527272727271</v>
+        <v>460.3390909090907</v>
       </c>
       <c r="G30" t="n">
-        <v>409.2024242424242</v>
+        <v>409.1903030303029</v>
       </c>
       <c r="H30" t="n">
-        <v>358.0521212121211</v>
+        <v>358.0415151515151</v>
       </c>
       <c r="I30" t="n">
-        <v>358.0521212121211</v>
+        <v>358.0415151515151</v>
       </c>
       <c r="J30" t="n">
-        <v>358.0521212121211</v>
+        <v>358.0415151515151</v>
       </c>
       <c r="K30" t="n">
-        <v>306.9018181818181</v>
+        <v>306.8927272727271</v>
       </c>
       <c r="L30" t="n">
-        <v>255.7515151515151</v>
+        <v>255.7439393939393</v>
       </c>
       <c r="M30" t="n">
-        <v>511.5030303030302</v>
+        <v>511.4878787878786</v>
       </c>
       <c r="N30" t="n">
-        <v>204.6012121212121</v>
+        <v>204.5951515151515</v>
       </c>
       <c r="O30" t="n">
-        <v>204.6012121212121</v>
+        <v>204.5951515151515</v>
       </c>
       <c r="P30" t="n">
-        <v>153.4509090909091</v>
+        <v>153.4463636363636</v>
       </c>
       <c r="Q30" t="n">
-        <v>153.4509090909091</v>
+        <v>153.4463636363636</v>
       </c>
       <c r="R30" t="n">
-        <v>102.300606060606</v>
+        <v>102.2975757575757</v>
       </c>
       <c r="S30" t="n">
-        <v>153.4509090909091</v>
+        <v>153.4463636363636</v>
       </c>
     </row>
     <row r="31">
@@ -2150,58 +2150,58 @@
         <v>6508</v>
       </c>
       <c r="B31" t="n">
-        <v>1656.64</v>
+        <v>1656.61</v>
       </c>
       <c r="C31" t="n">
-        <v>7000.269999999999</v>
+        <v>7000.159999999998</v>
       </c>
       <c r="D31" t="n">
-        <v>777.8077777777776</v>
+        <v>777.7955555555553</v>
       </c>
       <c r="E31" t="n">
-        <v>707.0979797979796</v>
+        <v>707.0868686868685</v>
       </c>
       <c r="F31" t="n">
-        <v>636.3881818181816</v>
+        <v>636.3781818181816</v>
       </c>
       <c r="G31" t="n">
-        <v>565.6783838383838</v>
+        <v>565.6694949494948</v>
       </c>
       <c r="H31" t="n">
-        <v>494.9685858585858</v>
+        <v>494.960808080808</v>
       </c>
       <c r="I31" t="n">
-        <v>494.9685858585858</v>
+        <v>494.960808080808</v>
       </c>
       <c r="J31" t="n">
-        <v>494.9685858585858</v>
+        <v>494.960808080808</v>
       </c>
       <c r="K31" t="n">
-        <v>424.2587878787878</v>
+        <v>424.2521212121211</v>
       </c>
       <c r="L31" t="n">
-        <v>353.5489898989898</v>
+        <v>353.5434343434342</v>
       </c>
       <c r="M31" t="n">
-        <v>707.0979797979796</v>
+        <v>707.0868686868685</v>
       </c>
       <c r="N31" t="n">
-        <v>282.8391919191919</v>
+        <v>282.8347474747474</v>
       </c>
       <c r="O31" t="n">
-        <v>282.8391919191919</v>
+        <v>282.8347474747474</v>
       </c>
       <c r="P31" t="n">
-        <v>212.1293939393939</v>
+        <v>212.1260606060605</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.1293939393939</v>
+        <v>212.1260606060605</v>
       </c>
       <c r="R31" t="n">
-        <v>141.4195959595959</v>
+        <v>141.4173737373737</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1293939393939</v>
+        <v>212.1260606060605</v>
       </c>
     </row>
     <row r="32">
@@ -2209,58 +2209,58 @@
         <v>6510</v>
       </c>
       <c r="B32" t="n">
-        <v>517.66</v>
+        <v>517.65</v>
       </c>
       <c r="C32" t="n">
-        <v>2193.489999999999</v>
+        <v>2193.409999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>243.721111111111</v>
+        <v>243.7122222222221</v>
       </c>
       <c r="E32" t="n">
-        <v>221.5646464646464</v>
+        <v>221.5565656565656</v>
       </c>
       <c r="F32" t="n">
-        <v>199.4081818181817</v>
+        <v>199.400909090909</v>
       </c>
       <c r="G32" t="n">
-        <v>177.2517171717171</v>
+        <v>177.2452525252525</v>
       </c>
       <c r="H32" t="n">
-        <v>155.0952525252525</v>
+        <v>155.0895959595959</v>
       </c>
       <c r="I32" t="n">
-        <v>155.0952525252525</v>
+        <v>155.0895959595959</v>
       </c>
       <c r="J32" t="n">
-        <v>155.0952525252525</v>
+        <v>155.0895959595959</v>
       </c>
       <c r="K32" t="n">
-        <v>132.9387878787878</v>
+        <v>132.9339393939393</v>
       </c>
       <c r="L32" t="n">
-        <v>110.7823232323232</v>
+        <v>110.7782828282828</v>
       </c>
       <c r="M32" t="n">
-        <v>221.5646464646464</v>
+        <v>221.5565656565656</v>
       </c>
       <c r="N32" t="n">
-        <v>88.62585858585855</v>
+        <v>88.62262626262623</v>
       </c>
       <c r="O32" t="n">
-        <v>88.62585858585855</v>
+        <v>88.62262626262623</v>
       </c>
       <c r="P32" t="n">
-        <v>66.46939393939391</v>
+        <v>66.46696969696967</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.46939393939391</v>
+        <v>66.46696969696967</v>
       </c>
       <c r="R32" t="n">
-        <v>44.31292929292928</v>
+        <v>44.31131313131311</v>
       </c>
       <c r="S32" t="n">
-        <v>66.46939393939391</v>
+        <v>66.46696969696967</v>
       </c>
     </row>
     <row r="33">
@@ -2268,58 +2268,58 @@
         <v>6509</v>
       </c>
       <c r="B33" t="n">
-        <v>1241.46</v>
+        <v>1241.45</v>
       </c>
       <c r="C33" t="n">
-        <v>5241.079999999998</v>
+        <v>5241.039999999998</v>
       </c>
       <c r="D33" t="n">
-        <v>582.3422222222221</v>
+        <v>582.3377777777775</v>
       </c>
       <c r="E33" t="n">
-        <v>529.40202020202</v>
+        <v>529.3979797979796</v>
       </c>
       <c r="F33" t="n">
-        <v>476.461818181818</v>
+        <v>476.4581818181816</v>
       </c>
       <c r="G33" t="n">
-        <v>423.5216161616161</v>
+        <v>423.5183838383837</v>
       </c>
       <c r="H33" t="n">
-        <v>370.581414141414</v>
+        <v>370.5785858585858</v>
       </c>
       <c r="I33" t="n">
-        <v>370.581414141414</v>
+        <v>370.5785858585858</v>
       </c>
       <c r="J33" t="n">
-        <v>370.581414141414</v>
+        <v>370.5785858585858</v>
       </c>
       <c r="K33" t="n">
-        <v>317.641212121212</v>
+        <v>317.6387878787878</v>
       </c>
       <c r="L33" t="n">
-        <v>264.70101010101</v>
+        <v>264.6989898989898</v>
       </c>
       <c r="M33" t="n">
-        <v>529.40202020202</v>
+        <v>529.3979797979796</v>
       </c>
       <c r="N33" t="n">
-        <v>211.760808080808</v>
+        <v>211.7591919191919</v>
       </c>
       <c r="O33" t="n">
-        <v>211.760808080808</v>
+        <v>211.7591919191919</v>
       </c>
       <c r="P33" t="n">
-        <v>158.820606060606</v>
+        <v>158.8193939393939</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.820606060606</v>
+        <v>158.8193939393939</v>
       </c>
       <c r="R33" t="n">
-        <v>105.880404040404</v>
+        <v>105.8795959595959</v>
       </c>
       <c r="S33" t="n">
-        <v>158.820606060606</v>
+        <v>158.8193939393939</v>
       </c>
     </row>
     <row r="34">
@@ -2327,58 +2327,58 @@
         <v>6403</v>
       </c>
       <c r="B34" t="n">
-        <v>1868.48</v>
+        <v>1868.45</v>
       </c>
       <c r="C34" t="n">
-        <v>8408.139999999999</v>
+        <v>8408.019999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>924.8953999999997</v>
+        <v>924.8821999999998</v>
       </c>
       <c r="E34" t="n">
-        <v>840.8139999999997</v>
+        <v>840.8019999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>756.7325999999998</v>
+        <v>756.7217999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>672.6511999999999</v>
+        <v>672.6415999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>588.5697999999999</v>
+        <v>588.5613999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>672.6511999999999</v>
+        <v>672.6415999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>588.5697999999999</v>
+        <v>588.5613999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>504.4883999999998</v>
+        <v>504.4811999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>420.4069999999999</v>
+        <v>420.401</v>
       </c>
       <c r="M34" t="n">
-        <v>840.8139999999997</v>
+        <v>840.8019999999999</v>
       </c>
       <c r="N34" t="n">
-        <v>336.3256</v>
+        <v>336.3208</v>
       </c>
       <c r="O34" t="n">
-        <v>336.3256</v>
+        <v>336.3208</v>
       </c>
       <c r="P34" t="n">
-        <v>252.2441999999999</v>
+        <v>252.2405999999999</v>
       </c>
       <c r="Q34" t="n">
-        <v>252.2441999999999</v>
+        <v>252.2405999999999</v>
       </c>
       <c r="R34" t="n">
-        <v>168.1628</v>
+        <v>168.1604</v>
       </c>
       <c r="S34" t="n">
-        <v>252.2441999999999</v>
+        <v>252.2405999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2475,55 +2475,55 @@
         <v>4.49</v>
       </c>
       <c r="C37" t="n">
-        <v>20.2</v>
+        <v>20.19</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1.999009900990099</v>
       </c>
       <c r="E37" t="n">
-        <v>1.8</v>
+        <v>1.799108910891089</v>
       </c>
       <c r="F37" t="n">
-        <v>1.8</v>
+        <v>1.799108910891089</v>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>1.599207920792079</v>
       </c>
       <c r="H37" t="n">
-        <v>1.4</v>
+        <v>1.399306930693069</v>
       </c>
       <c r="I37" t="n">
-        <v>1.4</v>
+        <v>1.399306930693069</v>
       </c>
       <c r="J37" t="n">
-        <v>1.4</v>
+        <v>1.399306930693069</v>
       </c>
       <c r="K37" t="n">
-        <v>1.4</v>
+        <v>1.399306930693069</v>
       </c>
       <c r="L37" t="n">
-        <v>1.2</v>
+        <v>1.199405940594059</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1.999009900990099</v>
       </c>
       <c r="N37" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.7996039603960395</v>
       </c>
       <c r="O37" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.7996039603960395</v>
       </c>
       <c r="P37" t="n">
-        <v>0.5999999999999998</v>
+        <v>0.5997029702970296</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5999999999999998</v>
+        <v>0.5997029702970296</v>
       </c>
       <c r="R37" t="n">
-        <v>0.5999999999999998</v>
+        <v>0.5997029702970296</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.7996039603960395</v>
       </c>
     </row>
     <row r="38">
@@ -2534,55 +2534,55 @@
         <v>1001.25</v>
       </c>
       <c r="C38" t="n">
-        <v>4505.649999999999</v>
+        <v>4505.629999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>446.1039603960394</v>
+        <v>446.1019801980197</v>
       </c>
       <c r="E38" t="n">
-        <v>401.4935643564355</v>
+        <v>401.4917821782178</v>
       </c>
       <c r="F38" t="n">
-        <v>401.4935643564355</v>
+        <v>401.4917821782178</v>
       </c>
       <c r="G38" t="n">
-        <v>356.8831683168316</v>
+        <v>356.8815841584158</v>
       </c>
       <c r="H38" t="n">
-        <v>312.2727722772277</v>
+        <v>312.2713861386138</v>
       </c>
       <c r="I38" t="n">
-        <v>312.2727722772277</v>
+        <v>312.2713861386138</v>
       </c>
       <c r="J38" t="n">
-        <v>312.2727722772277</v>
+        <v>312.2713861386138</v>
       </c>
       <c r="K38" t="n">
-        <v>312.2727722772277</v>
+        <v>312.2713861386138</v>
       </c>
       <c r="L38" t="n">
-        <v>267.6623762376237</v>
+        <v>267.6611881188118</v>
       </c>
       <c r="M38" t="n">
-        <v>446.1039603960394</v>
+        <v>446.1019801980197</v>
       </c>
       <c r="N38" t="n">
-        <v>178.4415841584158</v>
+        <v>178.4407920792079</v>
       </c>
       <c r="O38" t="n">
-        <v>178.4415841584158</v>
+        <v>178.4407920792079</v>
       </c>
       <c r="P38" t="n">
-        <v>133.8311881188118</v>
+        <v>133.8305940594059</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.8311881188118</v>
+        <v>133.8305940594059</v>
       </c>
       <c r="R38" t="n">
-        <v>133.8311881188118</v>
+        <v>133.8305940594059</v>
       </c>
       <c r="S38" t="n">
-        <v>178.4415841584158</v>
+        <v>178.4407920792079</v>
       </c>
     </row>
     <row r="39">
@@ -2590,58 +2590,58 @@
         <v>1302</v>
       </c>
       <c r="B39" t="n">
-        <v>775.05</v>
+        <v>775.04</v>
       </c>
       <c r="C39" t="n">
-        <v>3487.729999999999</v>
+        <v>3487.669999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>345.319801980198</v>
+        <v>345.3138613861385</v>
       </c>
       <c r="E39" t="n">
-        <v>310.7878217821782</v>
+        <v>310.7824752475247</v>
       </c>
       <c r="F39" t="n">
-        <v>310.7878217821782</v>
+        <v>310.7824752475247</v>
       </c>
       <c r="G39" t="n">
-        <v>276.2558415841584</v>
+        <v>276.2510891089108</v>
       </c>
       <c r="H39" t="n">
-        <v>241.7238613861386</v>
+        <v>241.719702970297</v>
       </c>
       <c r="I39" t="n">
-        <v>241.7238613861386</v>
+        <v>241.719702970297</v>
       </c>
       <c r="J39" t="n">
-        <v>241.7238613861386</v>
+        <v>241.719702970297</v>
       </c>
       <c r="K39" t="n">
-        <v>241.7238613861386</v>
+        <v>241.719702970297</v>
       </c>
       <c r="L39" t="n">
-        <v>207.1918811881187</v>
+        <v>207.1883168316831</v>
       </c>
       <c r="M39" t="n">
-        <v>345.319801980198</v>
+        <v>345.3138613861385</v>
       </c>
       <c r="N39" t="n">
-        <v>138.1279207920792</v>
+        <v>138.1255445544554</v>
       </c>
       <c r="O39" t="n">
-        <v>138.1279207920792</v>
+        <v>138.1255445544554</v>
       </c>
       <c r="P39" t="n">
-        <v>103.5959405940594</v>
+        <v>103.5941584158416</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.5959405940594</v>
+        <v>103.5941584158416</v>
       </c>
       <c r="R39" t="n">
-        <v>103.5959405940594</v>
+        <v>103.5941584158416</v>
       </c>
       <c r="S39" t="n">
-        <v>138.1279207920792</v>
+        <v>138.1255445544554</v>
       </c>
     </row>
     <row r="40">
@@ -2649,58 +2649,58 @@
         <v>208</v>
       </c>
       <c r="B40" t="n">
-        <v>85.01000000000001</v>
+        <v>85</v>
       </c>
       <c r="C40" t="n">
-        <v>406.3699999999999</v>
+        <v>406.3399999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>36.5733</v>
+        <v>36.57059999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>32.5096</v>
+        <v>32.50719999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>28.4459</v>
+        <v>28.4438</v>
       </c>
       <c r="G40" t="n">
-        <v>24.38219999999999</v>
+        <v>24.38039999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>24.38219999999999</v>
+        <v>24.38039999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>28.4459</v>
+        <v>28.4438</v>
       </c>
       <c r="J40" t="n">
-        <v>24.38219999999999</v>
+        <v>24.38039999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>24.38219999999999</v>
+        <v>24.38039999999999</v>
       </c>
       <c r="L40" t="n">
-        <v>28.4459</v>
+        <v>28.4438</v>
       </c>
       <c r="M40" t="n">
-        <v>36.5733</v>
+        <v>36.57059999999999</v>
       </c>
       <c r="N40" t="n">
-        <v>20.3185</v>
+        <v>20.31699999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>20.3185</v>
+        <v>20.31699999999999</v>
       </c>
       <c r="P40" t="n">
-        <v>16.2548</v>
+        <v>16.2536</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.2548</v>
+        <v>16.2536</v>
       </c>
       <c r="R40" t="n">
-        <v>16.2548</v>
+        <v>16.2536</v>
       </c>
       <c r="S40" t="n">
-        <v>28.4459</v>
+        <v>28.4438</v>
       </c>
     </row>
     <row r="41">
@@ -2708,58 +2708,58 @@
         <v>207</v>
       </c>
       <c r="B41" t="n">
-        <v>120.01</v>
+        <v>120</v>
       </c>
       <c r="C41" t="n">
-        <v>571.1599999999999</v>
+        <v>571.1099999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>51.40439999999999</v>
+        <v>51.39989999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>45.69279999999999</v>
+        <v>45.68879999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>39.98119999999999</v>
+        <v>39.9777</v>
       </c>
       <c r="G41" t="n">
-        <v>34.26959999999999</v>
+        <v>34.26659999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>34.26959999999999</v>
+        <v>34.26659999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>39.98119999999999</v>
+        <v>39.9777</v>
       </c>
       <c r="J41" t="n">
-        <v>34.26959999999999</v>
+        <v>34.26659999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>34.26959999999999</v>
+        <v>34.26659999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>39.98119999999999</v>
+        <v>39.9777</v>
       </c>
       <c r="M41" t="n">
-        <v>51.40439999999999</v>
+        <v>51.39989999999999</v>
       </c>
       <c r="N41" t="n">
-        <v>28.55799999999999</v>
+        <v>28.55549999999999</v>
       </c>
       <c r="O41" t="n">
-        <v>28.55799999999999</v>
+        <v>28.55549999999999</v>
       </c>
       <c r="P41" t="n">
-        <v>22.8464</v>
+        <v>22.8444</v>
       </c>
       <c r="Q41" t="n">
-        <v>22.8464</v>
+        <v>22.8444</v>
       </c>
       <c r="R41" t="n">
-        <v>22.8464</v>
+        <v>22.8444</v>
       </c>
       <c r="S41" t="n">
-        <v>39.98119999999999</v>
+        <v>39.9777</v>
       </c>
     </row>
     <row r="42">
@@ -2767,58 +2767,58 @@
         <v>2401</v>
       </c>
       <c r="B42" t="n">
-        <v>1935.86</v>
+        <v>1935.82</v>
       </c>
       <c r="C42" t="n">
-        <v>9893.48</v>
+        <v>9893.32</v>
       </c>
       <c r="D42" t="n">
-        <v>1175.46297029703</v>
+        <v>1175.44396039604</v>
       </c>
       <c r="E42" t="n">
-        <v>1077.507722772277</v>
+        <v>1077.490297029703</v>
       </c>
       <c r="F42" t="n">
-        <v>979.5524752475247</v>
+        <v>979.5366336633664</v>
       </c>
       <c r="G42" t="n">
-        <v>783.6419801980197</v>
+        <v>783.629306930693</v>
       </c>
       <c r="H42" t="n">
-        <v>783.6419801980197</v>
+        <v>783.629306930693</v>
       </c>
       <c r="I42" t="n">
-        <v>783.6419801980197</v>
+        <v>783.629306930693</v>
       </c>
       <c r="J42" t="n">
-        <v>685.6867326732673</v>
+        <v>685.6756435643565</v>
       </c>
       <c r="K42" t="n">
-        <v>587.7314851485148</v>
+        <v>587.7219801980198</v>
       </c>
       <c r="L42" t="n">
-        <v>391.8209900990099</v>
+        <v>391.8146534653465</v>
       </c>
       <c r="M42" t="n">
-        <v>1175.46297029703</v>
+        <v>1175.44396039604</v>
       </c>
       <c r="N42" t="n">
-        <v>293.8657425742574</v>
+        <v>293.8609900990099</v>
       </c>
       <c r="O42" t="n">
-        <v>293.8657425742574</v>
+        <v>293.8609900990099</v>
       </c>
       <c r="P42" t="n">
-        <v>293.8657425742574</v>
+        <v>293.8609900990099</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.9104950495049</v>
+        <v>195.9073267326733</v>
       </c>
       <c r="R42" t="n">
-        <v>195.9104950495049</v>
+        <v>195.9073267326733</v>
       </c>
       <c r="S42" t="n">
-        <v>195.9104950495049</v>
+        <v>195.9073267326733</v>
       </c>
     </row>
     <row r="43">
@@ -2826,58 +2826,58 @@
         <v>203</v>
       </c>
       <c r="B43" t="n">
-        <v>324.26</v>
+        <v>324.24</v>
       </c>
       <c r="C43" t="n">
-        <v>1549.25</v>
+        <v>1549.15</v>
       </c>
       <c r="D43" t="n">
-        <v>139.4325</v>
+        <v>139.4235</v>
       </c>
       <c r="E43" t="n">
-        <v>123.94</v>
+        <v>123.932</v>
       </c>
       <c r="F43" t="n">
-        <v>108.4475</v>
+        <v>108.4405</v>
       </c>
       <c r="G43" t="n">
-        <v>92.95499999999997</v>
+        <v>92.94899999999998</v>
       </c>
       <c r="H43" t="n">
-        <v>92.95499999999997</v>
+        <v>92.94899999999998</v>
       </c>
       <c r="I43" t="n">
-        <v>108.4475</v>
+        <v>108.4405</v>
       </c>
       <c r="J43" t="n">
-        <v>92.95499999999997</v>
+        <v>92.94899999999998</v>
       </c>
       <c r="K43" t="n">
-        <v>92.95499999999997</v>
+        <v>92.94899999999998</v>
       </c>
       <c r="L43" t="n">
-        <v>108.4475</v>
+        <v>108.4405</v>
       </c>
       <c r="M43" t="n">
-        <v>139.4325</v>
+        <v>139.4235</v>
       </c>
       <c r="N43" t="n">
-        <v>77.46249999999998</v>
+        <v>77.45749999999998</v>
       </c>
       <c r="O43" t="n">
-        <v>77.46249999999998</v>
+        <v>77.45749999999998</v>
       </c>
       <c r="P43" t="n">
-        <v>61.96999999999999</v>
+        <v>61.96599999999999</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.96999999999999</v>
+        <v>61.96599999999999</v>
       </c>
       <c r="R43" t="n">
-        <v>61.96999999999999</v>
+        <v>61.96599999999999</v>
       </c>
       <c r="S43" t="n">
-        <v>108.4475</v>
+        <v>108.4405</v>
       </c>
     </row>
     <row r="44">
@@ -2885,58 +2885,58 @@
         <v>204</v>
       </c>
       <c r="B44" t="n">
-        <v>379.94</v>
+        <v>379.92</v>
       </c>
       <c r="C44" t="n">
-        <v>1818.21</v>
+        <v>1818.119999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>163.6389</v>
+        <v>163.6308</v>
       </c>
       <c r="E44" t="n">
-        <v>145.4568</v>
+        <v>145.4496</v>
       </c>
       <c r="F44" t="n">
-        <v>127.2747</v>
+        <v>127.2684</v>
       </c>
       <c r="G44" t="n">
-        <v>109.0926</v>
+        <v>109.0872</v>
       </c>
       <c r="H44" t="n">
-        <v>109.0926</v>
+        <v>109.0872</v>
       </c>
       <c r="I44" t="n">
-        <v>127.2747</v>
+        <v>127.2684</v>
       </c>
       <c r="J44" t="n">
-        <v>109.0926</v>
+        <v>109.0872</v>
       </c>
       <c r="K44" t="n">
-        <v>109.0926</v>
+        <v>109.0872</v>
       </c>
       <c r="L44" t="n">
-        <v>127.2747</v>
+        <v>127.2684</v>
       </c>
       <c r="M44" t="n">
-        <v>163.6389</v>
+        <v>163.6308</v>
       </c>
       <c r="N44" t="n">
-        <v>90.91049999999998</v>
+        <v>90.90599999999998</v>
       </c>
       <c r="O44" t="n">
-        <v>90.91049999999998</v>
+        <v>90.90599999999998</v>
       </c>
       <c r="P44" t="n">
-        <v>72.72839999999999</v>
+        <v>72.72479999999999</v>
       </c>
       <c r="Q44" t="n">
-        <v>72.72839999999999</v>
+        <v>72.72479999999999</v>
       </c>
       <c r="R44" t="n">
-        <v>72.72839999999999</v>
+        <v>72.72479999999999</v>
       </c>
       <c r="S44" t="n">
-        <v>127.2747</v>
+        <v>127.2684</v>
       </c>
     </row>
     <row r="45">
@@ -2944,58 +2944,58 @@
         <v>6609</v>
       </c>
       <c r="B45" t="n">
-        <v>1666.51</v>
+        <v>1666.5</v>
       </c>
       <c r="C45" t="n">
-        <v>7035.349999999999</v>
+        <v>7035.299999999998</v>
       </c>
       <c r="D45" t="n">
-        <v>781.7055555555554</v>
+        <v>781.6999999999998</v>
       </c>
       <c r="E45" t="n">
-        <v>710.641414141414</v>
+        <v>710.6363636363634</v>
       </c>
       <c r="F45" t="n">
-        <v>639.5772727272724</v>
+        <v>639.572727272727</v>
       </c>
       <c r="G45" t="n">
-        <v>568.5131313131312</v>
+        <v>568.5090909090908</v>
       </c>
       <c r="H45" t="n">
-        <v>497.4489898989898</v>
+        <v>497.4454545454544</v>
       </c>
       <c r="I45" t="n">
-        <v>497.4489898989898</v>
+        <v>497.4454545454544</v>
       </c>
       <c r="J45" t="n">
-        <v>497.4489898989898</v>
+        <v>497.4454545454544</v>
       </c>
       <c r="K45" t="n">
-        <v>426.3848484848484</v>
+        <v>426.3818181818181</v>
       </c>
       <c r="L45" t="n">
-        <v>355.320707070707</v>
+        <v>355.3181818181817</v>
       </c>
       <c r="M45" t="n">
-        <v>710.641414141414</v>
+        <v>710.6363636363634</v>
       </c>
       <c r="N45" t="n">
-        <v>284.2565656565656</v>
+        <v>284.2545454545454</v>
       </c>
       <c r="O45" t="n">
-        <v>284.2565656565656</v>
+        <v>284.2545454545454</v>
       </c>
       <c r="P45" t="n">
-        <v>213.1924242424242</v>
+        <v>213.190909090909</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.1924242424242</v>
+        <v>213.190909090909</v>
       </c>
       <c r="R45" t="n">
-        <v>142.1282828282828</v>
+        <v>142.1272727272727</v>
       </c>
       <c r="S45" t="n">
-        <v>213.1924242424242</v>
+        <v>213.190909090909</v>
       </c>
     </row>
     <row r="46">
@@ -3062,58 +3062,58 @@
         <v>6506</v>
       </c>
       <c r="B47" t="n">
-        <v>1461.92</v>
+        <v>1461.9</v>
       </c>
       <c r="C47" t="n">
-        <v>6578.639999999999</v>
+        <v>6578.559999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>723.6503999999999</v>
+        <v>723.6415999999998</v>
       </c>
       <c r="E47" t="n">
-        <v>657.8639999999999</v>
+        <v>657.8559999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>592.0776</v>
+        <v>592.0703999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>526.2911999999999</v>
+        <v>526.2847999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>460.5048</v>
+        <v>460.4992</v>
       </c>
       <c r="I47" t="n">
-        <v>526.2911999999999</v>
+        <v>526.2847999999999</v>
       </c>
       <c r="J47" t="n">
-        <v>460.5048</v>
+        <v>460.4992</v>
       </c>
       <c r="K47" t="n">
-        <v>394.7183999999999</v>
+        <v>394.7135999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>328.932</v>
+        <v>328.9279999999999</v>
       </c>
       <c r="M47" t="n">
-        <v>657.8639999999999</v>
+        <v>657.8559999999999</v>
       </c>
       <c r="N47" t="n">
-        <v>263.1455999999999</v>
+        <v>263.1424</v>
       </c>
       <c r="O47" t="n">
-        <v>263.1455999999999</v>
+        <v>263.1424</v>
       </c>
       <c r="P47" t="n">
-        <v>197.3592</v>
+        <v>197.3568</v>
       </c>
       <c r="Q47" t="n">
-        <v>197.3592</v>
+        <v>197.3568</v>
       </c>
       <c r="R47" t="n">
-        <v>131.5728</v>
+        <v>131.5712</v>
       </c>
       <c r="S47" t="n">
-        <v>197.3592</v>
+        <v>197.3568</v>
       </c>
     </row>
     <row r="48">
@@ -3121,58 +3121,58 @@
         <v>6801</v>
       </c>
       <c r="B48" t="n">
-        <v>8236.879999999999</v>
+        <v>8236.82</v>
       </c>
       <c r="C48" t="n">
-        <v>42372.06</v>
+        <v>42371.79</v>
       </c>
       <c r="D48" t="n">
-        <v>5034.304158415841</v>
+        <v>5034.272079207921</v>
       </c>
       <c r="E48" t="n">
-        <v>4195.253465346535</v>
+        <v>4195.226732673267</v>
       </c>
       <c r="F48" t="n">
-        <v>3775.728118811881</v>
+        <v>3775.70405940594</v>
       </c>
       <c r="G48" t="n">
-        <v>3775.728118811881</v>
+        <v>3775.70405940594</v>
       </c>
       <c r="H48" t="n">
-        <v>3775.728118811881</v>
+        <v>3775.70405940594</v>
       </c>
       <c r="I48" t="n">
-        <v>3356.202772277228</v>
+        <v>3356.181386138614</v>
       </c>
       <c r="J48" t="n">
-        <v>2517.15207920792</v>
+        <v>2517.13603960396</v>
       </c>
       <c r="K48" t="n">
-        <v>2097.626732673267</v>
+        <v>2097.613366336634</v>
       </c>
       <c r="L48" t="n">
-        <v>1678.101386138614</v>
+        <v>1678.090693069307</v>
       </c>
       <c r="M48" t="n">
-        <v>4614.778811881188</v>
+        <v>4614.749405940594</v>
       </c>
       <c r="N48" t="n">
-        <v>1678.101386138614</v>
+        <v>1678.090693069307</v>
       </c>
       <c r="O48" t="n">
-        <v>1678.101386138614</v>
+        <v>1678.090693069307</v>
       </c>
       <c r="P48" t="n">
-        <v>1258.57603960396</v>
+        <v>1258.56801980198</v>
       </c>
       <c r="Q48" t="n">
-        <v>1258.57603960396</v>
+        <v>1258.56801980198</v>
       </c>
       <c r="R48" t="n">
-        <v>839.0506930693069</v>
+        <v>839.0453465346535</v>
       </c>
       <c r="S48" t="n">
-        <v>839.0506930693069</v>
+        <v>839.0453465346535</v>
       </c>
     </row>
     <row r="49">
@@ -3357,58 +3357,58 @@
         <v>1102</v>
       </c>
       <c r="B52" t="n">
-        <v>959.99</v>
+        <v>959.98</v>
       </c>
       <c r="C52" t="n">
-        <v>3991.25</v>
+        <v>3991.190000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>478.95</v>
+        <v>478.9428</v>
       </c>
       <c r="E52" t="n">
-        <v>439.0375</v>
+        <v>439.0309</v>
       </c>
       <c r="F52" t="n">
-        <v>359.2125</v>
+        <v>359.2071</v>
       </c>
       <c r="G52" t="n">
-        <v>319.3</v>
+        <v>319.2952</v>
       </c>
       <c r="H52" t="n">
-        <v>319.3</v>
+        <v>319.2952</v>
       </c>
       <c r="I52" t="n">
-        <v>319.3</v>
+        <v>319.2952</v>
       </c>
       <c r="J52" t="n">
-        <v>279.3875</v>
+        <v>279.3833</v>
       </c>
       <c r="K52" t="n">
-        <v>239.475</v>
+        <v>239.4714</v>
       </c>
       <c r="L52" t="n">
-        <v>159.65</v>
+        <v>159.6476</v>
       </c>
       <c r="M52" t="n">
-        <v>478.95</v>
+        <v>478.9428</v>
       </c>
       <c r="N52" t="n">
-        <v>119.7375</v>
+        <v>119.7357</v>
       </c>
       <c r="O52" t="n">
-        <v>119.7375</v>
+        <v>119.7357</v>
       </c>
       <c r="P52" t="n">
-        <v>119.7375</v>
+        <v>119.7357</v>
       </c>
       <c r="Q52" t="n">
-        <v>79.825</v>
+        <v>79.82380000000001</v>
       </c>
       <c r="R52" t="n">
-        <v>79.825</v>
+        <v>79.82380000000001</v>
       </c>
       <c r="S52" t="n">
-        <v>79.825</v>
+        <v>79.82380000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3416,58 +3416,58 @@
         <v>1202</v>
       </c>
       <c r="B53" t="n">
-        <v>922.05</v>
+        <v>922.04</v>
       </c>
       <c r="C53" t="n">
-        <v>3846.799999999999</v>
+        <v>3846.739999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>414.8509803921568</v>
+        <v>414.8445098039215</v>
       </c>
       <c r="E53" t="n">
-        <v>377.1372549019607</v>
+        <v>377.1313725490195</v>
       </c>
       <c r="F53" t="n">
-        <v>339.4235294117647</v>
+        <v>339.4182352941176</v>
       </c>
       <c r="G53" t="n">
-        <v>301.7098039215686</v>
+        <v>301.7050980392156</v>
       </c>
       <c r="H53" t="n">
-        <v>301.7098039215686</v>
+        <v>301.7050980392156</v>
       </c>
       <c r="I53" t="n">
-        <v>301.7098039215686</v>
+        <v>301.7050980392156</v>
       </c>
       <c r="J53" t="n">
-        <v>263.9960784313726</v>
+        <v>263.9919607843137</v>
       </c>
       <c r="K53" t="n">
-        <v>226.2823529411764</v>
+        <v>226.2788235294117</v>
       </c>
       <c r="L53" t="n">
-        <v>150.8549019607843</v>
+        <v>150.8525490196078</v>
       </c>
       <c r="M53" t="n">
-        <v>414.8509803921568</v>
+        <v>414.8445098039215</v>
       </c>
       <c r="N53" t="n">
-        <v>150.8549019607843</v>
+        <v>150.8525490196078</v>
       </c>
       <c r="O53" t="n">
-        <v>150.8549019607843</v>
+        <v>150.8525490196078</v>
       </c>
       <c r="P53" t="n">
-        <v>150.8549019607843</v>
+        <v>150.8525490196078</v>
       </c>
       <c r="Q53" t="n">
-        <v>113.1411764705882</v>
+        <v>113.1394117647058</v>
       </c>
       <c r="R53" t="n">
-        <v>75.42745098039215</v>
+        <v>75.4262745098039</v>
       </c>
       <c r="S53" t="n">
-        <v>113.1411764705882</v>
+        <v>113.1394117647058</v>
       </c>
     </row>
     <row r="54">
@@ -3475,58 +3475,58 @@
         <v>1203</v>
       </c>
       <c r="B54" t="n">
-        <v>709.55</v>
+        <v>709.54</v>
       </c>
       <c r="C54" t="n">
-        <v>2959.799999999999</v>
+        <v>2959.75</v>
       </c>
       <c r="D54" t="n">
-        <v>319.1941176470588</v>
+        <v>319.188725490196</v>
       </c>
       <c r="E54" t="n">
-        <v>290.1764705882352</v>
+        <v>290.1715686274509</v>
       </c>
       <c r="F54" t="n">
-        <v>261.1588235294117</v>
+        <v>261.1544117647058</v>
       </c>
       <c r="G54" t="n">
-        <v>232.1411764705882</v>
+        <v>232.1372549019607</v>
       </c>
       <c r="H54" t="n">
-        <v>232.1411764705882</v>
+        <v>232.1372549019607</v>
       </c>
       <c r="I54" t="n">
-        <v>232.1411764705882</v>
+        <v>232.1372549019607</v>
       </c>
       <c r="J54" t="n">
-        <v>203.1235294117647</v>
+        <v>203.1200980392157</v>
       </c>
       <c r="K54" t="n">
-        <v>174.1058823529411</v>
+        <v>174.1029411764706</v>
       </c>
       <c r="L54" t="n">
-        <v>116.0705882352941</v>
+        <v>116.0686274509804</v>
       </c>
       <c r="M54" t="n">
-        <v>319.1941176470588</v>
+        <v>319.188725490196</v>
       </c>
       <c r="N54" t="n">
-        <v>116.0705882352941</v>
+        <v>116.0686274509804</v>
       </c>
       <c r="O54" t="n">
-        <v>116.0705882352941</v>
+        <v>116.0686274509804</v>
       </c>
       <c r="P54" t="n">
-        <v>116.0705882352941</v>
+        <v>116.0686274509804</v>
       </c>
       <c r="Q54" t="n">
-        <v>87.05294117647057</v>
+        <v>87.05147058823528</v>
       </c>
       <c r="R54" t="n">
-        <v>58.03529411764705</v>
+        <v>58.03431372549019</v>
       </c>
       <c r="S54" t="n">
-        <v>87.05294117647057</v>
+        <v>87.05147058823528</v>
       </c>
     </row>
     <row r="55">
@@ -3534,58 +3534,58 @@
         <v>2202</v>
       </c>
       <c r="B55" t="n">
-        <v>2071.42</v>
+        <v>2071.41</v>
       </c>
       <c r="C55" t="n">
-        <v>8570.329999999998</v>
+        <v>8570.279999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>933.4022772277225</v>
+        <v>933.3968316831681</v>
       </c>
       <c r="E55" t="n">
-        <v>848.5475247524751</v>
+        <v>848.5425742574256</v>
       </c>
       <c r="F55" t="n">
-        <v>763.6927722772276</v>
+        <v>763.6883168316831</v>
       </c>
       <c r="G55" t="n">
-        <v>678.8380198019801</v>
+        <v>678.8340594059405</v>
       </c>
       <c r="H55" t="n">
-        <v>678.8380198019801</v>
+        <v>678.8340594059405</v>
       </c>
       <c r="I55" t="n">
-        <v>678.8380198019801</v>
+        <v>678.8340594059405</v>
       </c>
       <c r="J55" t="n">
-        <v>593.9832673267326</v>
+        <v>593.979801980198</v>
       </c>
       <c r="K55" t="n">
-        <v>509.128514851485</v>
+        <v>509.1255445544554</v>
       </c>
       <c r="L55" t="n">
-        <v>424.2737623762375</v>
+        <v>424.2712871287128</v>
       </c>
       <c r="M55" t="n">
-        <v>933.4022772277225</v>
+        <v>933.3968316831681</v>
       </c>
       <c r="N55" t="n">
-        <v>339.41900990099</v>
+        <v>339.4170297029702</v>
       </c>
       <c r="O55" t="n">
-        <v>339.41900990099</v>
+        <v>339.4170297029702</v>
       </c>
       <c r="P55" t="n">
-        <v>254.5642574257425</v>
+        <v>254.5627722772277</v>
       </c>
       <c r="Q55" t="n">
-        <v>169.709504950495</v>
+        <v>169.7085148514851</v>
       </c>
       <c r="R55" t="n">
-        <v>169.709504950495</v>
+        <v>169.7085148514851</v>
       </c>
       <c r="S55" t="n">
-        <v>254.5642574257425</v>
+        <v>254.5627722772277</v>
       </c>
     </row>
     <row r="56">
@@ -3652,58 +3652,58 @@
         <v>2302</v>
       </c>
       <c r="B57" t="n">
-        <v>1286.02</v>
+        <v>1285.93</v>
       </c>
       <c r="C57" t="n">
-        <v>5472.129999999999</v>
+        <v>5471.729999999998</v>
       </c>
       <c r="D57" t="n">
-        <v>601.9342999999999</v>
+        <v>601.8902999999998</v>
       </c>
       <c r="E57" t="n">
-        <v>547.2129999999999</v>
+        <v>547.1729999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>492.4916999999999</v>
+        <v>492.4556999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>437.7703999999999</v>
+        <v>437.7383999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>437.7703999999999</v>
+        <v>437.7383999999999</v>
       </c>
       <c r="I57" t="n">
-        <v>437.7703999999999</v>
+        <v>437.7383999999999</v>
       </c>
       <c r="J57" t="n">
-        <v>383.0491</v>
+        <v>383.0210999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>328.3277999999999</v>
+        <v>328.3037999999999</v>
       </c>
       <c r="L57" t="n">
-        <v>218.8852</v>
+        <v>218.8691999999999</v>
       </c>
       <c r="M57" t="n">
-        <v>601.9342999999999</v>
+        <v>601.8902999999998</v>
       </c>
       <c r="N57" t="n">
-        <v>218.8852</v>
+        <v>218.8691999999999</v>
       </c>
       <c r="O57" t="n">
-        <v>218.8852</v>
+        <v>218.8691999999999</v>
       </c>
       <c r="P57" t="n">
-        <v>164.1639</v>
+        <v>164.1519</v>
       </c>
       <c r="Q57" t="n">
-        <v>164.1639</v>
+        <v>164.1519</v>
       </c>
       <c r="R57" t="n">
-        <v>109.4426</v>
+        <v>109.4346</v>
       </c>
       <c r="S57" t="n">
-        <v>109.4426</v>
+        <v>109.4346</v>
       </c>
     </row>
     <row r="58">
@@ -3770,58 +3770,58 @@
         <v>2102</v>
       </c>
       <c r="B59" t="n">
-        <v>1992.77</v>
+        <v>1992.76</v>
       </c>
       <c r="C59" t="n">
-        <v>8967.459999999997</v>
+        <v>8967.439999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>967.0790196078428</v>
+        <v>967.0768627450979</v>
       </c>
       <c r="E59" t="n">
-        <v>879.162745098039</v>
+        <v>879.1607843137255</v>
       </c>
       <c r="F59" t="n">
-        <v>791.2464705882351</v>
+        <v>791.2447058823528</v>
       </c>
       <c r="G59" t="n">
-        <v>703.3301960784312</v>
+        <v>703.3286274509803</v>
       </c>
       <c r="H59" t="n">
-        <v>703.3301960784312</v>
+        <v>703.3286274509803</v>
       </c>
       <c r="I59" t="n">
-        <v>703.3301960784312</v>
+        <v>703.3286274509803</v>
       </c>
       <c r="J59" t="n">
-        <v>615.4139215686273</v>
+        <v>615.4125490196078</v>
       </c>
       <c r="K59" t="n">
-        <v>527.4976470588233</v>
+        <v>527.4964705882352</v>
       </c>
       <c r="L59" t="n">
-        <v>439.5813725490195</v>
+        <v>439.5803921568627</v>
       </c>
       <c r="M59" t="n">
-        <v>967.0790196078428</v>
+        <v>967.0768627450979</v>
       </c>
       <c r="N59" t="n">
-        <v>351.6650980392156</v>
+        <v>351.6643137254902</v>
       </c>
       <c r="O59" t="n">
-        <v>351.6650980392156</v>
+        <v>351.6643137254902</v>
       </c>
       <c r="P59" t="n">
-        <v>263.7488235294117</v>
+        <v>263.7482352941176</v>
       </c>
       <c r="Q59" t="n">
-        <v>263.7488235294117</v>
+        <v>263.7482352941176</v>
       </c>
       <c r="R59" t="n">
-        <v>175.8325490196078</v>
+        <v>175.8321568627451</v>
       </c>
       <c r="S59" t="n">
-        <v>263.7488235294117</v>
+        <v>263.7482352941176</v>
       </c>
     </row>
     <row r="60">
@@ -3829,58 +3829,58 @@
         <v>2103</v>
       </c>
       <c r="B60" t="n">
-        <v>1493.89</v>
+        <v>1493.88</v>
       </c>
       <c r="C60" t="n">
-        <v>6671.909999999999</v>
+        <v>6671.849999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>719.5197058823528</v>
+        <v>719.5132352941175</v>
       </c>
       <c r="E60" t="n">
-        <v>654.1088235294117</v>
+        <v>654.1029411764705</v>
       </c>
       <c r="F60" t="n">
-        <v>588.6979411764704</v>
+        <v>588.6926470588235</v>
       </c>
       <c r="G60" t="n">
-        <v>523.2870588235293</v>
+        <v>523.2823529411764</v>
       </c>
       <c r="H60" t="n">
-        <v>523.2870588235293</v>
+        <v>523.2823529411764</v>
       </c>
       <c r="I60" t="n">
-        <v>523.2870588235293</v>
+        <v>523.2823529411764</v>
       </c>
       <c r="J60" t="n">
-        <v>457.8761764705882</v>
+        <v>457.8720588235294</v>
       </c>
       <c r="K60" t="n">
-        <v>392.465294117647</v>
+        <v>392.4617647058823</v>
       </c>
       <c r="L60" t="n">
-        <v>327.0544117647058</v>
+        <v>327.0514705882352</v>
       </c>
       <c r="M60" t="n">
-        <v>719.5197058823528</v>
+        <v>719.5132352941175</v>
       </c>
       <c r="N60" t="n">
-        <v>261.6435294117646</v>
+        <v>261.6411764705882</v>
       </c>
       <c r="O60" t="n">
-        <v>261.6435294117646</v>
+        <v>261.6411764705882</v>
       </c>
       <c r="P60" t="n">
-        <v>196.2326470588235</v>
+        <v>196.2308823529411</v>
       </c>
       <c r="Q60" t="n">
-        <v>196.2326470588235</v>
+        <v>196.2308823529411</v>
       </c>
       <c r="R60" t="n">
-        <v>130.8217647058823</v>
+        <v>130.8205882352941</v>
       </c>
       <c r="S60" t="n">
-        <v>196.2326470588235</v>
+        <v>196.2308823529411</v>
       </c>
     </row>
     <row r="61">
@@ -3888,58 +3888,58 @@
         <v>1204</v>
       </c>
       <c r="B61" t="n">
-        <v>1670.23</v>
+        <v>1670.21</v>
       </c>
       <c r="C61" t="n">
-        <v>6961.749999999998</v>
+        <v>6961.669999999998</v>
       </c>
       <c r="D61" t="n">
-        <v>750.7769607843136</v>
+        <v>750.7683333333332</v>
       </c>
       <c r="E61" t="n">
-        <v>682.5245098039214</v>
+        <v>682.5166666666665</v>
       </c>
       <c r="F61" t="n">
-        <v>614.2720588235293</v>
+        <v>614.2649999999999</v>
       </c>
       <c r="G61" t="n">
-        <v>546.0196078431371</v>
+        <v>546.0133333333332</v>
       </c>
       <c r="H61" t="n">
-        <v>546.0196078431371</v>
+        <v>546.0133333333332</v>
       </c>
       <c r="I61" t="n">
-        <v>546.0196078431371</v>
+        <v>546.0133333333332</v>
       </c>
       <c r="J61" t="n">
-        <v>477.767156862745</v>
+        <v>477.7616666666666</v>
       </c>
       <c r="K61" t="n">
-        <v>409.5147058823528</v>
+        <v>409.5099999999999</v>
       </c>
       <c r="L61" t="n">
-        <v>273.0098039215686</v>
+        <v>273.0066666666666</v>
       </c>
       <c r="M61" t="n">
-        <v>750.7769607843136</v>
+        <v>750.7683333333332</v>
       </c>
       <c r="N61" t="n">
-        <v>273.0098039215686</v>
+        <v>273.0066666666666</v>
       </c>
       <c r="O61" t="n">
-        <v>273.0098039215686</v>
+        <v>273.0066666666666</v>
       </c>
       <c r="P61" t="n">
-        <v>273.0098039215686</v>
+        <v>273.0066666666666</v>
       </c>
       <c r="Q61" t="n">
-        <v>204.7573529411764</v>
+        <v>204.7549999999999</v>
       </c>
       <c r="R61" t="n">
-        <v>136.5049019607843</v>
+        <v>136.5033333333333</v>
       </c>
       <c r="S61" t="n">
-        <v>204.7573529411764</v>
+        <v>204.7549999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4068,55 +4068,55 @@
         <v>2469.63</v>
       </c>
       <c r="C64" t="n">
-        <v>11113.35</v>
+        <v>11113.34</v>
       </c>
       <c r="D64" t="n">
-        <v>1222.4685</v>
+        <v>1222.4674</v>
       </c>
       <c r="E64" t="n">
-        <v>1111.335</v>
+        <v>1111.334</v>
       </c>
       <c r="F64" t="n">
-        <v>1000.2015</v>
+        <v>1000.2006</v>
       </c>
       <c r="G64" t="n">
-        <v>889.0679999999999</v>
+        <v>889.0671999999998</v>
       </c>
       <c r="H64" t="n">
-        <v>777.9345</v>
+        <v>777.9337999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>889.0679999999999</v>
+        <v>889.0671999999998</v>
       </c>
       <c r="J64" t="n">
-        <v>777.9345</v>
+        <v>777.9337999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>666.8009999999998</v>
+        <v>666.8003999999999</v>
       </c>
       <c r="L64" t="n">
-        <v>555.6674999999999</v>
+        <v>555.6669999999999</v>
       </c>
       <c r="M64" t="n">
-        <v>1111.335</v>
+        <v>1111.334</v>
       </c>
       <c r="N64" t="n">
-        <v>444.5339999999999</v>
+        <v>444.5335999999999</v>
       </c>
       <c r="O64" t="n">
-        <v>444.5339999999999</v>
+        <v>444.5335999999999</v>
       </c>
       <c r="P64" t="n">
-        <v>333.4004999999999</v>
+        <v>333.4001999999999</v>
       </c>
       <c r="Q64" t="n">
-        <v>333.4004999999999</v>
+        <v>333.4001999999999</v>
       </c>
       <c r="R64" t="n">
-        <v>222.267</v>
+        <v>222.2668</v>
       </c>
       <c r="S64" t="n">
-        <v>333.4004999999999</v>
+        <v>333.4001999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4124,58 +4124,58 @@
         <v>6802</v>
       </c>
       <c r="B65" t="n">
-        <v>6895.62</v>
+        <v>6895.59</v>
       </c>
       <c r="C65" t="n">
-        <v>35504.51</v>
+        <v>35504.39</v>
       </c>
       <c r="D65" t="n">
-        <v>4218.357623762377</v>
+        <v>4218.343366336633</v>
       </c>
       <c r="E65" t="n">
-        <v>3515.29801980198</v>
+        <v>3515.286138613862</v>
       </c>
       <c r="F65" t="n">
-        <v>3163.768217821782</v>
+        <v>3163.757524752475</v>
       </c>
       <c r="G65" t="n">
-        <v>3163.768217821782</v>
+        <v>3163.757524752475</v>
       </c>
       <c r="H65" t="n">
-        <v>3163.768217821782</v>
+        <v>3163.757524752475</v>
       </c>
       <c r="I65" t="n">
-        <v>2812.238415841584</v>
+        <v>2812.228910891089</v>
       </c>
       <c r="J65" t="n">
-        <v>2109.178811881188</v>
+        <v>2109.171683168317</v>
       </c>
       <c r="K65" t="n">
-        <v>1757.64900990099</v>
+        <v>1757.643069306931</v>
       </c>
       <c r="L65" t="n">
-        <v>1406.119207920792</v>
+        <v>1406.114455445545</v>
       </c>
       <c r="M65" t="n">
-        <v>3866.827821782178</v>
+        <v>3866.814752475248</v>
       </c>
       <c r="N65" t="n">
-        <v>1406.119207920792</v>
+        <v>1406.114455445545</v>
       </c>
       <c r="O65" t="n">
-        <v>1406.119207920792</v>
+        <v>1406.114455445545</v>
       </c>
       <c r="P65" t="n">
-        <v>1054.589405940594</v>
+        <v>1054.585841584158</v>
       </c>
       <c r="Q65" t="n">
-        <v>1054.589405940594</v>
+        <v>1054.585841584158</v>
       </c>
       <c r="R65" t="n">
-        <v>703.0596039603961</v>
+        <v>703.0572277227723</v>
       </c>
       <c r="S65" t="n">
-        <v>703.0596039603961</v>
+        <v>703.0572277227723</v>
       </c>
     </row>
     <row r="66">
@@ -4355,58 +4355,58 @@
         <v>1304</v>
       </c>
       <c r="B70" t="n">
-        <v>759.73</v>
+        <v>759.71</v>
       </c>
       <c r="C70" t="n">
-        <v>3418.769999999999</v>
+        <v>3418.709999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>338.4920792079207</v>
+        <v>338.4861386138613</v>
       </c>
       <c r="E70" t="n">
-        <v>304.6428712871286</v>
+        <v>304.6375247524752</v>
       </c>
       <c r="F70" t="n">
-        <v>304.6428712871286</v>
+        <v>304.6375247524752</v>
       </c>
       <c r="G70" t="n">
-        <v>270.7936633663366</v>
+        <v>270.7889108910891</v>
       </c>
       <c r="H70" t="n">
-        <v>236.9444554455445</v>
+        <v>236.9402970297029</v>
       </c>
       <c r="I70" t="n">
-        <v>236.9444554455445</v>
+        <v>236.9402970297029</v>
       </c>
       <c r="J70" t="n">
-        <v>236.9444554455445</v>
+        <v>236.9402970297029</v>
       </c>
       <c r="K70" t="n">
-        <v>236.9444554455445</v>
+        <v>236.9402970297029</v>
       </c>
       <c r="L70" t="n">
-        <v>203.0952475247524</v>
+        <v>203.0916831683168</v>
       </c>
       <c r="M70" t="n">
-        <v>338.4920792079207</v>
+        <v>338.4861386138613</v>
       </c>
       <c r="N70" t="n">
-        <v>135.3968316831683</v>
+        <v>135.3944554455445</v>
       </c>
       <c r="O70" t="n">
-        <v>135.3968316831683</v>
+        <v>135.3944554455445</v>
       </c>
       <c r="P70" t="n">
-        <v>101.5476237623762</v>
+        <v>101.5458415841584</v>
       </c>
       <c r="Q70" t="n">
-        <v>101.5476237623762</v>
+        <v>101.5458415841584</v>
       </c>
       <c r="R70" t="n">
-        <v>101.5476237623762</v>
+        <v>101.5458415841584</v>
       </c>
       <c r="S70" t="n">
-        <v>135.3968316831683</v>
+        <v>135.3944554455445</v>
       </c>
     </row>
     <row r="71">
@@ -4414,58 +4414,58 @@
         <v>1306</v>
       </c>
       <c r="B71" t="n">
-        <v>680.02</v>
+        <v>680.01</v>
       </c>
       <c r="C71" t="n">
-        <v>3060.099999999999</v>
+        <v>3060.03</v>
       </c>
       <c r="D71" t="n">
-        <v>302.9801980198019</v>
+        <v>302.9732673267326</v>
       </c>
       <c r="E71" t="n">
-        <v>272.6821782178217</v>
+        <v>272.6759405940593</v>
       </c>
       <c r="F71" t="n">
-        <v>272.6821782178217</v>
+        <v>272.6759405940593</v>
       </c>
       <c r="G71" t="n">
-        <v>242.3841584158415</v>
+        <v>242.3786138613861</v>
       </c>
       <c r="H71" t="n">
-        <v>212.0861386138614</v>
+        <v>212.0812871287129</v>
       </c>
       <c r="I71" t="n">
-        <v>212.0861386138614</v>
+        <v>212.0812871287129</v>
       </c>
       <c r="J71" t="n">
-        <v>212.0861386138614</v>
+        <v>212.0812871287129</v>
       </c>
       <c r="K71" t="n">
-        <v>212.0861386138614</v>
+        <v>212.0812871287129</v>
       </c>
       <c r="L71" t="n">
-        <v>181.7881188118811</v>
+        <v>181.7839603960396</v>
       </c>
       <c r="M71" t="n">
-        <v>302.9801980198019</v>
+        <v>302.9732673267326</v>
       </c>
       <c r="N71" t="n">
-        <v>121.1920792079208</v>
+        <v>121.1893069306931</v>
       </c>
       <c r="O71" t="n">
-        <v>121.1920792079208</v>
+        <v>121.1893069306931</v>
       </c>
       <c r="P71" t="n">
-        <v>90.89405940594057</v>
+        <v>90.89198019801978</v>
       </c>
       <c r="Q71" t="n">
-        <v>90.89405940594057</v>
+        <v>90.89198019801978</v>
       </c>
       <c r="R71" t="n">
-        <v>90.89405940594057</v>
+        <v>90.89198019801978</v>
       </c>
       <c r="S71" t="n">
-        <v>121.1920792079208</v>
+        <v>121.1893069306931</v>
       </c>
     </row>
     <row r="72">
@@ -4473,58 +4473,58 @@
         <v>2402</v>
       </c>
       <c r="B72" t="n">
-        <v>2103.06</v>
+        <v>2102.72</v>
       </c>
       <c r="C72" t="n">
-        <v>10351.98</v>
+        <v>10350.45</v>
       </c>
       <c r="D72" t="n">
-        <v>1229.938217821782</v>
+        <v>1229.756435643564</v>
       </c>
       <c r="E72" t="n">
-        <v>1127.443366336634</v>
+        <v>1127.276732673267</v>
       </c>
       <c r="F72" t="n">
-        <v>1024.948514851485</v>
+        <v>1024.79702970297</v>
       </c>
       <c r="G72" t="n">
-        <v>819.9588118811881</v>
+        <v>819.8376237623763</v>
       </c>
       <c r="H72" t="n">
-        <v>819.9588118811881</v>
+        <v>819.8376237623763</v>
       </c>
       <c r="I72" t="n">
-        <v>819.9588118811881</v>
+        <v>819.8376237623763</v>
       </c>
       <c r="J72" t="n">
-        <v>717.4639603960396</v>
+        <v>717.3579207920793</v>
       </c>
       <c r="K72" t="n">
-        <v>614.969108910891</v>
+        <v>614.8782178217822</v>
       </c>
       <c r="L72" t="n">
-        <v>409.9794059405941</v>
+        <v>409.9188118811882</v>
       </c>
       <c r="M72" t="n">
-        <v>1229.938217821782</v>
+        <v>1229.756435643564</v>
       </c>
       <c r="N72" t="n">
-        <v>307.4845544554455</v>
+        <v>307.4391089108911</v>
       </c>
       <c r="O72" t="n">
-        <v>307.4845544554455</v>
+        <v>307.4391089108911</v>
       </c>
       <c r="P72" t="n">
-        <v>307.4845544554455</v>
+        <v>307.4391089108911</v>
       </c>
       <c r="Q72" t="n">
-        <v>204.989702970297</v>
+        <v>204.9594059405941</v>
       </c>
       <c r="R72" t="n">
-        <v>204.989702970297</v>
+        <v>204.9594059405941</v>
       </c>
       <c r="S72" t="n">
-        <v>204.989702970297</v>
+        <v>204.9594059405941</v>
       </c>
     </row>
     <row r="73">
@@ -4532,58 +4532,58 @@
         <v>6611</v>
       </c>
       <c r="B73" t="n">
-        <v>111.16</v>
+        <v>111.1</v>
       </c>
       <c r="C73" t="n">
-        <v>500.2099999999998</v>
+        <v>499.9699999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>55.57888888888887</v>
+        <v>55.55222222222221</v>
       </c>
       <c r="E73" t="n">
-        <v>50.52626262626261</v>
+        <v>50.50202020202019</v>
       </c>
       <c r="F73" t="n">
-        <v>45.47363636363634</v>
+        <v>45.45181818181816</v>
       </c>
       <c r="G73" t="n">
-        <v>40.42101010101009</v>
+        <v>40.40161616161615</v>
       </c>
       <c r="H73" t="n">
-        <v>35.36838383838383</v>
+        <v>35.35141414141413</v>
       </c>
       <c r="I73" t="n">
-        <v>35.36838383838383</v>
+        <v>35.35141414141413</v>
       </c>
       <c r="J73" t="n">
-        <v>35.36838383838383</v>
+        <v>35.35141414141413</v>
       </c>
       <c r="K73" t="n">
-        <v>30.31575757575757</v>
+        <v>30.30121212121211</v>
       </c>
       <c r="L73" t="n">
-        <v>25.2631313131313</v>
+        <v>25.2510101010101</v>
       </c>
       <c r="M73" t="n">
-        <v>50.52626262626261</v>
+        <v>50.50202020202019</v>
       </c>
       <c r="N73" t="n">
-        <v>20.21050505050504</v>
+        <v>20.20080808080808</v>
       </c>
       <c r="O73" t="n">
-        <v>20.21050505050504</v>
+        <v>20.20080808080808</v>
       </c>
       <c r="P73" t="n">
-        <v>15.15787878787878</v>
+        <v>15.15060606060606</v>
       </c>
       <c r="Q73" t="n">
-        <v>15.15787878787878</v>
+        <v>15.15060606060606</v>
       </c>
       <c r="R73" t="n">
-        <v>10.10525252525252</v>
+        <v>10.10040404040404</v>
       </c>
       <c r="S73" t="n">
-        <v>15.15787878787878</v>
+        <v>15.15060606060606</v>
       </c>
     </row>
     <row r="74">
@@ -4650,58 +4650,58 @@
         <v>3606</v>
       </c>
       <c r="B75" t="n">
-        <v>800.6</v>
+        <v>800.5599999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>3191.629999999999</v>
+        <v>3191.459999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>354.6255555555555</v>
+        <v>354.6066666666666</v>
       </c>
       <c r="E75" t="n">
-        <v>290.1481818181817</v>
+        <v>290.1327272727272</v>
       </c>
       <c r="F75" t="n">
-        <v>257.9094949494949</v>
+        <v>257.8957575757575</v>
       </c>
       <c r="G75" t="n">
-        <v>225.670808080808</v>
+        <v>225.6587878787878</v>
       </c>
       <c r="H75" t="n">
-        <v>257.9094949494949</v>
+        <v>257.8957575757575</v>
       </c>
       <c r="I75" t="n">
-        <v>257.9094949494949</v>
+        <v>257.8957575757575</v>
       </c>
       <c r="J75" t="n">
-        <v>225.670808080808</v>
+        <v>225.6587878787878</v>
       </c>
       <c r="K75" t="n">
-        <v>193.4321212121212</v>
+        <v>193.4218181818181</v>
       </c>
       <c r="L75" t="n">
-        <v>128.9547474747474</v>
+        <v>128.9478787878788</v>
       </c>
       <c r="M75" t="n">
-        <v>322.3868686868686</v>
+        <v>322.3696969696969</v>
       </c>
       <c r="N75" t="n">
-        <v>128.9547474747474</v>
+        <v>128.9478787878788</v>
       </c>
       <c r="O75" t="n">
-        <v>128.9547474747474</v>
+        <v>128.9478787878788</v>
       </c>
       <c r="P75" t="n">
-        <v>128.9547474747474</v>
+        <v>128.9478787878788</v>
       </c>
       <c r="Q75" t="n">
-        <v>96.71606060606058</v>
+        <v>96.71090909090906</v>
       </c>
       <c r="R75" t="n">
-        <v>96.71606060606058</v>
+        <v>96.71090909090906</v>
       </c>
       <c r="S75" t="n">
-        <v>96.71606060606058</v>
+        <v>96.71090909090906</v>
       </c>
     </row>
     <row r="76">
@@ -4709,58 +4709,58 @@
         <v>3604</v>
       </c>
       <c r="B76" t="n">
-        <v>846.97</v>
+        <v>846.9299999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>3372.909999999999</v>
+        <v>3372.739999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>374.7677777777777</v>
+        <v>374.7488888888888</v>
       </c>
       <c r="E76" t="n">
-        <v>306.6281818181816</v>
+        <v>306.6127272727271</v>
       </c>
       <c r="F76" t="n">
-        <v>272.5583838383837</v>
+        <v>272.5446464646463</v>
       </c>
       <c r="G76" t="n">
-        <v>238.4885858585858</v>
+        <v>238.4765656565656</v>
       </c>
       <c r="H76" t="n">
-        <v>272.5583838383837</v>
+        <v>272.5446464646463</v>
       </c>
       <c r="I76" t="n">
-        <v>272.5583838383837</v>
+        <v>272.5446464646463</v>
       </c>
       <c r="J76" t="n">
-        <v>238.4885858585858</v>
+        <v>238.4765656565656</v>
       </c>
       <c r="K76" t="n">
-        <v>204.4187878787878</v>
+        <v>204.4084848484848</v>
       </c>
       <c r="L76" t="n">
-        <v>136.2791919191919</v>
+        <v>136.2723232323232</v>
       </c>
       <c r="M76" t="n">
-        <v>340.6979797979797</v>
+        <v>340.6808080808079</v>
       </c>
       <c r="N76" t="n">
-        <v>136.2791919191919</v>
+        <v>136.2723232323232</v>
       </c>
       <c r="O76" t="n">
-        <v>136.2791919191919</v>
+        <v>136.2723232323232</v>
       </c>
       <c r="P76" t="n">
-        <v>136.2791919191919</v>
+        <v>136.2723232323232</v>
       </c>
       <c r="Q76" t="n">
-        <v>102.2093939393939</v>
+        <v>102.2042424242424</v>
       </c>
       <c r="R76" t="n">
-        <v>102.2093939393939</v>
+        <v>102.2042424242424</v>
       </c>
       <c r="S76" t="n">
-        <v>102.2093939393939</v>
+        <v>102.2042424242424</v>
       </c>
     </row>
     <row r="77">
@@ -4768,58 +4768,58 @@
         <v>3609</v>
       </c>
       <c r="B77" t="n">
-        <v>387.7</v>
+        <v>387.67</v>
       </c>
       <c r="C77" t="n">
-        <v>1558.95</v>
+        <v>1558.809999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>173.2166666666666</v>
+        <v>173.2011111111111</v>
       </c>
       <c r="E77" t="n">
-        <v>141.7227272727272</v>
+        <v>141.7099999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>125.9757575757575</v>
+        <v>125.9644444444444</v>
       </c>
       <c r="G77" t="n">
-        <v>110.2287878787879</v>
+        <v>110.2188888888889</v>
       </c>
       <c r="H77" t="n">
-        <v>125.9757575757575</v>
+        <v>125.9644444444444</v>
       </c>
       <c r="I77" t="n">
-        <v>125.9757575757575</v>
+        <v>125.9644444444444</v>
       </c>
       <c r="J77" t="n">
-        <v>110.2287878787879</v>
+        <v>110.2188888888889</v>
       </c>
       <c r="K77" t="n">
-        <v>94.48181818181816</v>
+        <v>94.4733333333333</v>
       </c>
       <c r="L77" t="n">
-        <v>62.98787878787877</v>
+        <v>62.98222222222221</v>
       </c>
       <c r="M77" t="n">
-        <v>157.4696969696969</v>
+        <v>157.4555555555555</v>
       </c>
       <c r="N77" t="n">
-        <v>62.98787878787877</v>
+        <v>62.98222222222221</v>
       </c>
       <c r="O77" t="n">
-        <v>62.98787878787877</v>
+        <v>62.98222222222221</v>
       </c>
       <c r="P77" t="n">
-        <v>62.98787878787877</v>
+        <v>62.98222222222221</v>
       </c>
       <c r="Q77" t="n">
-        <v>47.24090909090908</v>
+        <v>47.23666666666665</v>
       </c>
       <c r="R77" t="n">
-        <v>47.24090909090908</v>
+        <v>47.23666666666665</v>
       </c>
       <c r="S77" t="n">
-        <v>47.24090909090908</v>
+        <v>47.23666666666665</v>
       </c>
     </row>
     <row r="78">
@@ -4827,58 +4827,58 @@
         <v>2403</v>
       </c>
       <c r="B78" t="n">
-        <v>1939.03</v>
+        <v>1939.01</v>
       </c>
       <c r="C78" t="n">
-        <v>9942.66</v>
+        <v>9942.619999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>1181.306138613861</v>
+        <v>1181.301386138614</v>
       </c>
       <c r="E78" t="n">
-        <v>1082.86396039604</v>
+        <v>1082.859603960396</v>
       </c>
       <c r="F78" t="n">
-        <v>984.4217821782179</v>
+        <v>984.4178217821783</v>
       </c>
       <c r="G78" t="n">
-        <v>787.5374257425742</v>
+        <v>787.5342574257427</v>
       </c>
       <c r="H78" t="n">
-        <v>787.5374257425742</v>
+        <v>787.5342574257427</v>
       </c>
       <c r="I78" t="n">
-        <v>787.5374257425742</v>
+        <v>787.5342574257427</v>
       </c>
       <c r="J78" t="n">
-        <v>689.0952475247525</v>
+        <v>689.0924752475248</v>
       </c>
       <c r="K78" t="n">
-        <v>590.6530693069307</v>
+        <v>590.650693069307</v>
       </c>
       <c r="L78" t="n">
-        <v>393.7687128712871</v>
+        <v>393.7671287128713</v>
       </c>
       <c r="M78" t="n">
-        <v>1181.306138613861</v>
+        <v>1181.301386138614</v>
       </c>
       <c r="N78" t="n">
-        <v>295.3265346534653</v>
+        <v>295.3253465346535</v>
       </c>
       <c r="O78" t="n">
-        <v>295.3265346534653</v>
+        <v>295.3253465346535</v>
       </c>
       <c r="P78" t="n">
-        <v>295.3265346534653</v>
+        <v>295.3253465346535</v>
       </c>
       <c r="Q78" t="n">
-        <v>196.8843564356436</v>
+        <v>196.8835643564357</v>
       </c>
       <c r="R78" t="n">
-        <v>196.8843564356436</v>
+        <v>196.8835643564357</v>
       </c>
       <c r="S78" t="n">
-        <v>196.8843564356436</v>
+        <v>196.8835643564357</v>
       </c>
     </row>
     <row r="79">
@@ -4886,58 +4886,58 @@
         <v>3601</v>
       </c>
       <c r="B79" t="n">
-        <v>187.77</v>
+        <v>187.76</v>
       </c>
       <c r="C79" t="n">
-        <v>739.9099999999999</v>
+        <v>739.8999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>82.2122222222222</v>
+        <v>82.21111111111108</v>
       </c>
       <c r="E79" t="n">
-        <v>67.26454545454543</v>
+        <v>67.26363636363634</v>
       </c>
       <c r="F79" t="n">
-        <v>59.79070707070705</v>
+        <v>59.78989898989897</v>
       </c>
       <c r="G79" t="n">
-        <v>52.31686868686867</v>
+        <v>52.3161616161616</v>
       </c>
       <c r="H79" t="n">
-        <v>59.79070707070705</v>
+        <v>59.78989898989897</v>
       </c>
       <c r="I79" t="n">
-        <v>59.79070707070705</v>
+        <v>59.78989898989897</v>
       </c>
       <c r="J79" t="n">
-        <v>52.31686868686867</v>
+        <v>52.3161616161616</v>
       </c>
       <c r="K79" t="n">
-        <v>44.84303030303029</v>
+        <v>44.84242424242423</v>
       </c>
       <c r="L79" t="n">
-        <v>29.89535353535353</v>
+        <v>29.89494949494949</v>
       </c>
       <c r="M79" t="n">
-        <v>74.73838383838381</v>
+        <v>74.73737373737372</v>
       </c>
       <c r="N79" t="n">
-        <v>29.89535353535353</v>
+        <v>29.89494949494949</v>
       </c>
       <c r="O79" t="n">
-        <v>29.89535353535353</v>
+        <v>29.89494949494949</v>
       </c>
       <c r="P79" t="n">
-        <v>29.89535353535353</v>
+        <v>29.89494949494949</v>
       </c>
       <c r="Q79" t="n">
-        <v>22.42151515151514</v>
+        <v>22.42121212121211</v>
       </c>
       <c r="R79" t="n">
-        <v>22.42151515151514</v>
+        <v>22.42121212121211</v>
       </c>
       <c r="S79" t="n">
-        <v>22.42151515151514</v>
+        <v>22.42121212121211</v>
       </c>
     </row>
     <row r="80">
@@ -4945,58 +4945,58 @@
         <v>3602</v>
       </c>
       <c r="B80" t="n">
-        <v>1078.27</v>
+        <v>1078.25</v>
       </c>
       <c r="C80" t="n">
-        <v>4264.719999999998</v>
+        <v>4264.609999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>473.8577777777776</v>
+        <v>473.8455555555554</v>
       </c>
       <c r="E80" t="n">
-        <v>387.7018181818181</v>
+        <v>387.691818181818</v>
       </c>
       <c r="F80" t="n">
-        <v>344.6238383838383</v>
+        <v>344.6149494949494</v>
       </c>
       <c r="G80" t="n">
-        <v>301.5458585858585</v>
+        <v>301.5380808080807</v>
       </c>
       <c r="H80" t="n">
-        <v>344.6238383838383</v>
+        <v>344.6149494949494</v>
       </c>
       <c r="I80" t="n">
-        <v>344.6238383838383</v>
+        <v>344.6149494949494</v>
       </c>
       <c r="J80" t="n">
-        <v>301.5458585858585</v>
+        <v>301.5380808080807</v>
       </c>
       <c r="K80" t="n">
-        <v>258.4678787878787</v>
+        <v>258.461212121212</v>
       </c>
       <c r="L80" t="n">
-        <v>172.3119191919191</v>
+        <v>172.3074747474747</v>
       </c>
       <c r="M80" t="n">
-        <v>430.7797979797979</v>
+        <v>430.7686868686867</v>
       </c>
       <c r="N80" t="n">
-        <v>172.3119191919191</v>
+        <v>172.3074747474747</v>
       </c>
       <c r="O80" t="n">
-        <v>172.3119191919191</v>
+        <v>172.3074747474747</v>
       </c>
       <c r="P80" t="n">
-        <v>172.3119191919191</v>
+        <v>172.3074747474747</v>
       </c>
       <c r="Q80" t="n">
-        <v>129.2339393939394</v>
+        <v>129.230606060606</v>
       </c>
       <c r="R80" t="n">
-        <v>129.2339393939394</v>
+        <v>129.230606060606</v>
       </c>
       <c r="S80" t="n">
-        <v>129.2339393939394</v>
+        <v>129.230606060606</v>
       </c>
     </row>
     <row r="81">
@@ -5004,58 +5004,58 @@
         <v>3610</v>
       </c>
       <c r="B81" t="n">
-        <v>643.71</v>
+        <v>643.67</v>
       </c>
       <c r="C81" t="n">
-        <v>2578.349999999999</v>
+        <v>2578.159999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>286.4833333333332</v>
+        <v>286.4622222222221</v>
       </c>
       <c r="E81" t="n">
-        <v>234.3954545454544</v>
+        <v>234.3781818181817</v>
       </c>
       <c r="F81" t="n">
-        <v>208.3515151515151</v>
+        <v>208.3361616161615</v>
       </c>
       <c r="G81" t="n">
-        <v>182.3075757575757</v>
+        <v>182.2941414141414</v>
       </c>
       <c r="H81" t="n">
-        <v>208.3515151515151</v>
+        <v>208.3361616161615</v>
       </c>
       <c r="I81" t="n">
-        <v>208.3515151515151</v>
+        <v>208.3361616161615</v>
       </c>
       <c r="J81" t="n">
-        <v>182.3075757575757</v>
+        <v>182.2941414141414</v>
       </c>
       <c r="K81" t="n">
-        <v>156.2636363636363</v>
+        <v>156.2521212121212</v>
       </c>
       <c r="L81" t="n">
-        <v>104.1757575757575</v>
+        <v>104.1680808080808</v>
       </c>
       <c r="M81" t="n">
-        <v>260.4393939393939</v>
+        <v>260.4202020202019</v>
       </c>
       <c r="N81" t="n">
-        <v>104.1757575757575</v>
+        <v>104.1680808080808</v>
       </c>
       <c r="O81" t="n">
-        <v>104.1757575757575</v>
+        <v>104.1680808080808</v>
       </c>
       <c r="P81" t="n">
-        <v>104.1757575757575</v>
+        <v>104.1680808080808</v>
       </c>
       <c r="Q81" t="n">
-        <v>78.13181818181816</v>
+        <v>78.12606060606058</v>
       </c>
       <c r="R81" t="n">
-        <v>78.13181818181816</v>
+        <v>78.12606060606058</v>
       </c>
       <c r="S81" t="n">
-        <v>78.13181818181816</v>
+        <v>78.12606060606058</v>
       </c>
     </row>
     <row r="82">
@@ -5063,58 +5063,58 @@
         <v>3603</v>
       </c>
       <c r="B82" t="n">
-        <v>623.21</v>
+        <v>623.17</v>
       </c>
       <c r="C82" t="n">
-        <v>2498.189999999999</v>
+        <v>2498.009999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>277.5766666666666</v>
+        <v>277.5566666666666</v>
       </c>
       <c r="E82" t="n">
-        <v>227.1081818181817</v>
+        <v>227.0918181818181</v>
       </c>
       <c r="F82" t="n">
-        <v>201.8739393939393</v>
+        <v>201.8593939393939</v>
       </c>
       <c r="G82" t="n">
-        <v>176.6396969696969</v>
+        <v>176.6269696969697</v>
       </c>
       <c r="H82" t="n">
-        <v>201.8739393939393</v>
+        <v>201.8593939393939</v>
       </c>
       <c r="I82" t="n">
-        <v>201.8739393939393</v>
+        <v>201.8593939393939</v>
       </c>
       <c r="J82" t="n">
-        <v>176.6396969696969</v>
+        <v>176.6269696969697</v>
       </c>
       <c r="K82" t="n">
-        <v>151.4054545454545</v>
+        <v>151.3945454545454</v>
       </c>
       <c r="L82" t="n">
-        <v>100.9369696969697</v>
+        <v>100.9296969696969</v>
       </c>
       <c r="M82" t="n">
-        <v>252.3424242424242</v>
+        <v>252.3242424242424</v>
       </c>
       <c r="N82" t="n">
-        <v>100.9369696969697</v>
+        <v>100.9296969696969</v>
       </c>
       <c r="O82" t="n">
-        <v>100.9369696969697</v>
+        <v>100.9296969696969</v>
       </c>
       <c r="P82" t="n">
-        <v>100.9369696969697</v>
+        <v>100.9296969696969</v>
       </c>
       <c r="Q82" t="n">
-        <v>75.70272727272724</v>
+        <v>75.6972727272727</v>
       </c>
       <c r="R82" t="n">
-        <v>75.70272727272724</v>
+        <v>75.6972727272727</v>
       </c>
       <c r="S82" t="n">
-        <v>75.70272727272724</v>
+        <v>75.6972727272727</v>
       </c>
     </row>
     <row r="83">
@@ -5122,58 +5122,58 @@
         <v>2501</v>
       </c>
       <c r="B83" t="n">
-        <v>3136.41</v>
+        <v>3136.35</v>
       </c>
       <c r="C83" t="n">
-        <v>13933.84</v>
+        <v>13933.55</v>
       </c>
       <c r="D83" t="n">
-        <v>1639.275294117647</v>
+        <v>1639.241176470588</v>
       </c>
       <c r="E83" t="n">
-        <v>1502.669019607843</v>
+        <v>1502.637745098039</v>
       </c>
       <c r="F83" t="n">
-        <v>1366.062745098039</v>
+        <v>1366.03431372549</v>
       </c>
       <c r="G83" t="n">
-        <v>1229.456470588235</v>
+        <v>1229.430882352941</v>
       </c>
       <c r="H83" t="n">
-        <v>1092.850196078431</v>
+        <v>1092.827450980392</v>
       </c>
       <c r="I83" t="n">
-        <v>1092.850196078431</v>
+        <v>1092.827450980392</v>
       </c>
       <c r="J83" t="n">
-        <v>956.2439215686276</v>
+        <v>956.2240196078432</v>
       </c>
       <c r="K83" t="n">
-        <v>683.0313725490196</v>
+        <v>683.0171568627451</v>
       </c>
       <c r="L83" t="n">
-        <v>546.4250980392156</v>
+        <v>546.413725490196</v>
       </c>
       <c r="M83" t="n">
-        <v>1639.275294117647</v>
+        <v>1639.241176470588</v>
       </c>
       <c r="N83" t="n">
-        <v>546.4250980392156</v>
+        <v>546.413725490196</v>
       </c>
       <c r="O83" t="n">
-        <v>409.8188235294118</v>
+        <v>409.810294117647</v>
       </c>
       <c r="P83" t="n">
-        <v>409.8188235294118</v>
+        <v>409.810294117647</v>
       </c>
       <c r="Q83" t="n">
-        <v>273.2125490196078</v>
+        <v>273.206862745098</v>
       </c>
       <c r="R83" t="n">
-        <v>273.2125490196078</v>
+        <v>273.206862745098</v>
       </c>
       <c r="S83" t="n">
-        <v>273.2125490196078</v>
+        <v>273.206862745098</v>
       </c>
     </row>
     <row r="84">
@@ -5181,58 +5181,58 @@
         <v>2504</v>
       </c>
       <c r="B84" t="n">
-        <v>1602.53</v>
+        <v>1602.49</v>
       </c>
       <c r="C84" t="n">
-        <v>6663.89</v>
+        <v>6663.68</v>
       </c>
       <c r="D84" t="n">
-        <v>725.770198019802</v>
+        <v>725.7473267326733</v>
       </c>
       <c r="E84" t="n">
-        <v>659.7910891089109</v>
+        <v>659.770297029703</v>
       </c>
       <c r="F84" t="n">
-        <v>593.8119801980198</v>
+        <v>593.7932673267327</v>
       </c>
       <c r="G84" t="n">
-        <v>527.8328712871288</v>
+        <v>527.8162376237624</v>
       </c>
       <c r="H84" t="n">
-        <v>527.8328712871288</v>
+        <v>527.8162376237624</v>
       </c>
       <c r="I84" t="n">
-        <v>527.8328712871288</v>
+        <v>527.8162376237624</v>
       </c>
       <c r="J84" t="n">
-        <v>527.8328712871288</v>
+        <v>527.8162376237624</v>
       </c>
       <c r="K84" t="n">
-        <v>395.8746534653465</v>
+        <v>395.8621782178218</v>
       </c>
       <c r="L84" t="n">
-        <v>263.9164356435644</v>
+        <v>263.9081188118812</v>
       </c>
       <c r="M84" t="n">
-        <v>725.770198019802</v>
+        <v>725.7473267326733</v>
       </c>
       <c r="N84" t="n">
-        <v>263.9164356435644</v>
+        <v>263.9081188118812</v>
       </c>
       <c r="O84" t="n">
-        <v>263.9164356435644</v>
+        <v>263.9081188118812</v>
       </c>
       <c r="P84" t="n">
-        <v>197.9373267326733</v>
+        <v>197.9310891089109</v>
       </c>
       <c r="Q84" t="n">
-        <v>197.9373267326733</v>
+        <v>197.9310891089109</v>
       </c>
       <c r="R84" t="n">
-        <v>131.9582178217822</v>
+        <v>131.9540594059406</v>
       </c>
       <c r="S84" t="n">
-        <v>131.9582178217822</v>
+        <v>131.9540594059406</v>
       </c>
     </row>
     <row r="85">
@@ -5240,58 +5240,58 @@
         <v>304</v>
       </c>
       <c r="B85" t="n">
-        <v>957.0599999999999</v>
+        <v>957.05</v>
       </c>
       <c r="C85" t="n">
-        <v>4337.779999999999</v>
+        <v>4337.709999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>382.7452941176469</v>
+        <v>382.7391176470587</v>
       </c>
       <c r="E85" t="n">
-        <v>340.2180392156862</v>
+        <v>340.2125490196078</v>
       </c>
       <c r="F85" t="n">
-        <v>297.6907843137254</v>
+        <v>297.6859803921568</v>
       </c>
       <c r="G85" t="n">
-        <v>297.6907843137254</v>
+        <v>297.6859803921568</v>
       </c>
       <c r="H85" t="n">
-        <v>255.1635294117646</v>
+        <v>255.1594117647058</v>
       </c>
       <c r="I85" t="n">
-        <v>297.6907843137254</v>
+        <v>297.6859803921568</v>
       </c>
       <c r="J85" t="n">
-        <v>297.6907843137254</v>
+        <v>297.6859803921568</v>
       </c>
       <c r="K85" t="n">
-        <v>255.1635294117646</v>
+        <v>255.1594117647058</v>
       </c>
       <c r="L85" t="n">
-        <v>255.1635294117646</v>
+        <v>255.1594117647058</v>
       </c>
       <c r="M85" t="n">
-        <v>340.2180392156862</v>
+        <v>340.2125490196078</v>
       </c>
       <c r="N85" t="n">
-        <v>255.1635294117646</v>
+        <v>255.1594117647058</v>
       </c>
       <c r="O85" t="n">
-        <v>255.1635294117646</v>
+        <v>255.1594117647058</v>
       </c>
       <c r="P85" t="n">
-        <v>212.6362745098039</v>
+        <v>212.6328431372549</v>
       </c>
       <c r="Q85" t="n">
-        <v>170.1090196078431</v>
+        <v>170.1062745098039</v>
       </c>
       <c r="R85" t="n">
-        <v>127.5817647058823</v>
+        <v>127.5797058823529</v>
       </c>
       <c r="S85" t="n">
-        <v>297.6907843137254</v>
+        <v>297.6859803921568</v>
       </c>
     </row>
     <row r="86">
@@ -5299,58 +5299,58 @@
         <v>303</v>
       </c>
       <c r="B86" t="n">
-        <v>541.2</v>
+        <v>531.0700000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>2735.38</v>
+        <v>2410.829999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>246.1842</v>
+        <v>216.9747</v>
       </c>
       <c r="E86" t="n">
-        <v>218.8304</v>
+        <v>192.8664</v>
       </c>
       <c r="F86" t="n">
-        <v>191.4766</v>
+        <v>168.7581</v>
       </c>
       <c r="G86" t="n">
-        <v>191.4766</v>
+        <v>168.7581</v>
       </c>
       <c r="H86" t="n">
-        <v>191.4766</v>
+        <v>168.7581</v>
       </c>
       <c r="I86" t="n">
-        <v>191.4766</v>
+        <v>168.7581</v>
       </c>
       <c r="J86" t="n">
-        <v>191.4766</v>
+        <v>168.7581</v>
       </c>
       <c r="K86" t="n">
-        <v>164.1228</v>
+        <v>144.6498</v>
       </c>
       <c r="L86" t="n">
-        <v>164.1228</v>
+        <v>144.6498</v>
       </c>
       <c r="M86" t="n">
-        <v>218.8304</v>
+        <v>192.8664</v>
       </c>
       <c r="N86" t="n">
-        <v>136.769</v>
+        <v>120.5415</v>
       </c>
       <c r="O86" t="n">
-        <v>136.769</v>
+        <v>120.5415</v>
       </c>
       <c r="P86" t="n">
-        <v>109.4152</v>
+        <v>96.43319999999999</v>
       </c>
       <c r="Q86" t="n">
-        <v>109.4152</v>
+        <v>96.43319999999999</v>
       </c>
       <c r="R86" t="n">
-        <v>82.06139999999998</v>
+        <v>72.32489999999999</v>
       </c>
       <c r="S86" t="n">
-        <v>191.4766</v>
+        <v>168.7581</v>
       </c>
     </row>
     <row r="87">
@@ -5535,58 +5535,58 @@
         <v>201</v>
       </c>
       <c r="B90" t="n">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="C90" t="n">
-        <v>28.83</v>
+        <v>28.82</v>
       </c>
       <c r="D90" t="n">
-        <v>3.4596</v>
+        <v>3.4584</v>
       </c>
       <c r="E90" t="n">
-        <v>3.4596</v>
+        <v>3.4584</v>
       </c>
       <c r="F90" t="n">
-        <v>3.1713</v>
+        <v>3.1702</v>
       </c>
       <c r="G90" t="n">
-        <v>2.883</v>
+        <v>2.882</v>
       </c>
       <c r="H90" t="n">
-        <v>2.3064</v>
+        <v>2.3056</v>
       </c>
       <c r="I90" t="n">
-        <v>2.0181</v>
+        <v>2.0174</v>
       </c>
       <c r="J90" t="n">
-        <v>1.4415</v>
+        <v>1.441</v>
       </c>
       <c r="K90" t="n">
-        <v>1.4415</v>
+        <v>1.441</v>
       </c>
       <c r="L90" t="n">
-        <v>1.4415</v>
+        <v>1.441</v>
       </c>
       <c r="M90" t="n">
-        <v>3.4596</v>
+        <v>3.4584</v>
       </c>
       <c r="N90" t="n">
-        <v>1.1532</v>
+        <v>1.1528</v>
       </c>
       <c r="O90" t="n">
-        <v>0.8648999999999999</v>
+        <v>0.8645999999999999</v>
       </c>
       <c r="P90" t="n">
-        <v>0.5766</v>
+        <v>0.5764</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.5766</v>
+        <v>0.5764</v>
       </c>
       <c r="R90" t="n">
-        <v>0.2883</v>
+        <v>0.2882</v>
       </c>
       <c r="S90" t="n">
-        <v>0.2883</v>
+        <v>0.2882</v>
       </c>
     </row>
     <row r="91">
@@ -5594,58 +5594,58 @@
         <v>6608</v>
       </c>
       <c r="B91" t="n">
-        <v>113.84</v>
+        <v>113.79</v>
       </c>
       <c r="C91" t="n">
-        <v>512.3</v>
+        <v>512.05</v>
       </c>
       <c r="D91" t="n">
-        <v>61.47599999999999</v>
+        <v>61.44599999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>61.47599999999999</v>
+        <v>61.44599999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>56.35299999999999</v>
+        <v>56.3255</v>
       </c>
       <c r="G91" t="n">
-        <v>51.23</v>
+        <v>51.205</v>
       </c>
       <c r="H91" t="n">
-        <v>40.98399999999999</v>
+        <v>40.964</v>
       </c>
       <c r="I91" t="n">
-        <v>35.861</v>
+        <v>35.8435</v>
       </c>
       <c r="J91" t="n">
-        <v>25.615</v>
+        <v>25.6025</v>
       </c>
       <c r="K91" t="n">
-        <v>25.615</v>
+        <v>25.6025</v>
       </c>
       <c r="L91" t="n">
-        <v>25.615</v>
+        <v>25.6025</v>
       </c>
       <c r="M91" t="n">
-        <v>61.47599999999999</v>
+        <v>61.44599999999999</v>
       </c>
       <c r="N91" t="n">
-        <v>20.492</v>
+        <v>20.482</v>
       </c>
       <c r="O91" t="n">
-        <v>15.369</v>
+        <v>15.3615</v>
       </c>
       <c r="P91" t="n">
-        <v>10.246</v>
+        <v>10.241</v>
       </c>
       <c r="Q91" t="n">
-        <v>10.246</v>
+        <v>10.241</v>
       </c>
       <c r="R91" t="n">
-        <v>5.122999999999999</v>
+        <v>5.1205</v>
       </c>
       <c r="S91" t="n">
-        <v>5.122999999999999</v>
+        <v>5.1205</v>
       </c>
     </row>
     <row r="92">

--- a/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2035.xlsx
+++ b/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2035.xlsx
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>26126.53632743943</v>
+        <v>26519.05329032251</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>11074.18681390803</v>
+        <v>10503.43690607538</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>11863.46056681986</v>
+        <v>12041.69351176943</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
